--- a/mappings/package_F05/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F05/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="1241">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>
@@ -3464,28 +3464,6 @@
     <t>Award criteria</t>
   </si>
   <si>
-    <t>II.2.5.1.2.1</t>
-  </si>
-  <si>
-    <t>The criteria described below (Criterion:)</t>
-  </si>
-  <si>
-    <t>BT-543</t>
-  </si>
-  <si>
-    <t>Award Criterion complicated</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION
-OBJECT_CONTRACT/OBJECT_DESCR/AC_CRITERION</t>
-  </si>
-  <si>
-    <t>epo:AwardCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this cccev:description ?value .</t>
-  </si>
-  <si>
     <t>II.2.5.1</t>
   </si>
   <si>
@@ -3502,6 +3480,35 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
+    <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>epo:AwardCriterion / at-voc:award-criterion-type</t>
   </si>
   <si>
@@ -3559,6 +3566,9 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
+    <t>epo:AwardCriterion / rdf:langString</t>
+  </si>
+  <si>
     <t>?this cccev:name ?value .</t>
   </si>
   <si>
@@ -3566,6 +3576,12 @@
   </si>
   <si>
     <t>Weighting</t>
+  </si>
+  <si>
+    <t>BT-543</t>
+  </si>
+  <si>
+    <t>Award Criterion complicated</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
@@ -3588,6 +3604,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3650,6 +3692,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3702,6 +3770,32 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_PROCUREMENT_DOC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -3877,15 +3971,18 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm /</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator ?value .</t>
+    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator true .</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
   </si>
   <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator false .</t>
+  </si>
+  <si>
     <t>II.2.7.6</t>
   </si>
   <si>
@@ -3919,55 +4016,51 @@
     <t>Envisaged number of candidates</t>
   </si>
   <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_ENVISAGED_CANDIDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>II.2.9.2</t>
+  </si>
+  <si>
+    <t>Envisaged minimum number</t>
+  </si>
+  <si>
+    <t>BT-50</t>
+  </si>
+  <si>
+    <t>Minimum Candidates</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
+  </si>
+  <si>
+    <t>II.2.9.3</t>
+  </si>
+  <si>
+    <t>Envisaged maximum number</t>
+  </si>
+  <si>
     <t>BT-51</t>
   </si>
   <si>
-    <t>Maximum Candidates Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NB_ENVISAGED_CANDIDATE
-</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
+    <t>Maximum Candidates Number</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MAX_LIMIT_CANDIDATE</t>
   </si>
   <si>
     <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMaximumNumberOfCandidates ?value .</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>II.2.9.2</t>
-  </si>
-  <si>
-    <t>Envisaged minimum number</t>
-  </si>
-  <si>
-    <t>BT-50</t>
-  </si>
-  <si>
-    <t>Minimum Candidates</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
-  </si>
-  <si>
-    <t>II.2.9.3</t>
-  </si>
-  <si>
-    <t>Envisaged maximum number</t>
-  </si>
-  <si>
-    <t>Maximum Candidates Number</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MAX_LIMIT_CANDIDATE</t>
-  </si>
-  <si>
     <t>II.2.9.4</t>
   </si>
   <si>
@@ -4007,18 +4100,61 @@
     <t>Variants</t>
   </si>
   <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS
-</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS</t>
   </si>
   <si>
     <t>epo:Lot / epo:SubmissionTerm / at-voc:permission</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission ?value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS
-</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/not-allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.11</t>
@@ -4036,12 +4172,15 @@
     <t>BT-53</t>
   </si>
   <si>
+    <t>II.2.11.1.1</t>
+  </si>
+  <si>
+    <t>Options (checked / yes)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4076,6 +4215,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.11.1.2</t>
+  </si>
+  <si>
+    <t>Options (unchecked / no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
   </si>
   <si>
@@ -4142,7 +4287,28 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/ECATALOGUE_REQUIRED</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasECataloguePermission ?value</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasECataloguePermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/required</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.13</t>
@@ -4161,6 +4327,12 @@
   </si>
   <si>
     <t>EU Funds</t>
+  </si>
+  <si>
+    <t>II.2.13.1.1</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (yes)</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
@@ -4195,6 +4367,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.13.1.2</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -4324,98 +4502,194 @@
     <t>Suitability to pursue the professional activity, including requirements relating to enrolment on professional or trade registers</t>
   </si>
   <si>
+    <t>LEFTI/SUITABILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.1.1</t>
   </si>
   <si>
     <t>List and brief description of conditions, indication of information and documentation required</t>
   </si>
   <si>
+    <t>LEFTI/SUITABILITY/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+  </si>
+  <si>
+    <t>III.1.2</t>
+  </si>
+  <si>
+    <t>Economic and financial standing</t>
+  </si>
+  <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>Selection Criteria Type</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC
+LEFTI/ECONOMIC_FINANCIAL_INFO
+LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/ef-stand</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>III.1.2.1</t>
+  </si>
+  <si>
+    <t>Selection criteria as stated in the procurement documents</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
+  </si>
+  <si>
+    <t>III.1.2.2</t>
+  </si>
+  <si>
+    <t>List and brief description of selection criteria, indication of information and documentation required:</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
+  </si>
+  <si>
+    <t>III.1.2.3</t>
+  </si>
+  <si>
+    <t>Minimum level(s) of standards possibly required:</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / cccev:Constraint / cccev:InformationConcept / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / epo:hasConstraint / cccev:constrains / epo:hasDescription ?value .</t>
+  </si>
+  <si>
+    <t>III.1.3</t>
+  </si>
+  <si>
+    <t>Technical and professional ability</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC
+LEFTI/TECHNICAL_PROFESSIONAL_INFO
+LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/tp-abil</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>III.1.3.1</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
+  </si>
+  <si>
+    <t>III.1.3.2</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_PROFESSIONAL_INFO</t>
+  </si>
+  <si>
+    <t>III.1.3.3</t>
+  </si>
+  <si>
+    <t>Minimum level(s) of standards possibly required</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>III.1.4</t>
+  </si>
+  <si>
+    <t>Objective rules and criteria for participation</t>
+  </si>
+  <si>
+    <t>III.1.4.1</t>
+  </si>
+  <si>
+    <t>List and brief description of rules and criteria</t>
+  </si>
+  <si>
     <t>BT-749; BT-750</t>
-  </si>
-  <si>
-    <t>Selection Criteria Name; 
-Selection Criteria Description</t>
-  </si>
-  <si>
-    <t>LEFTI/SUITABILITY/P/FT</t>
-  </si>
-  <si>
-    <t>III.1.2</t>
-  </si>
-  <si>
-    <t>Economic and financial standing</t>
-  </si>
-  <si>
-    <t>III.1.2.1</t>
-  </si>
-  <si>
-    <t>Selection criteria as stated in the procurement documents</t>
-  </si>
-  <si>
-    <t>BT-747</t>
-  </si>
-  <si>
-    <t>Selection Criteria Type</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
-  </si>
-  <si>
-    <t>III.1.2.2</t>
-  </si>
-  <si>
-    <t>List and brief description of selection criteria, indication of information and documentation required:</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
-  </si>
-  <si>
-    <t>III.1.2.3</t>
-  </si>
-  <si>
-    <t>Minimum level(s) of standards possibly required:</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
-  </si>
-  <si>
-    <t>III.1.3</t>
-  </si>
-  <si>
-    <t>Technical and professional ability</t>
-  </si>
-  <si>
-    <t>III.1.3.1</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
-  </si>
-  <si>
-    <t>III.1.3.2</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_PROFESSIONAL_INFO</t>
-  </si>
-  <si>
-    <t>III.1.3.3</t>
-  </si>
-  <si>
-    <t>Minimum level(s) of standards possibly required</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
-  </si>
-  <si>
-    <t>III.1.4</t>
-  </si>
-  <si>
-    <t>Objective rules and criteria for participation</t>
-  </si>
-  <si>
-    <t>III.1.4.1</t>
-  </si>
-  <si>
-    <t>List and brief description of rules and criteria</t>
   </si>
   <si>
     <t>LEFTI/RULES_CRITERIA</t>
@@ -4467,7 +4741,22 @@
     <t>Guarantee Required</t>
   </si>
   <si>
-    <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED/P/FT</t>
+    <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SubmissionTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:isGuaranteeRequired true .</t>
+  </si>
+  <si>
+    <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SubmissionTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasGuaranteeDescription ?value .</t>
   </si>
   <si>
     <t>III.1.7</t>
@@ -4482,7 +4771,10 @@
     <t>Terms Financial</t>
   </si>
   <si>
-    <t>LEFTI/MAIN_FINANCING_CONDITION/P/FT</t>
+    <t>LEFTI/MAIN_FINANCING_CONDITION/P</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasPaymentArrangement ?value .</t>
   </si>
   <si>
     <t>III.1.8</t>
@@ -4497,7 +4789,16 @@
     <t>Tenderer Legal Form</t>
   </si>
   <si>
-    <t>LEFTI/LEGAL_FORM/P/FT</t>
+    <t>LEFTI/LEGAL_FORM</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasContractorLegalFormRequirement true .</t>
+  </si>
+  <si>
+    <t>LEFTI/LEGAL_FORM/P</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / 	epo:hasContractorLegalFormRequirementDescription ?value .</t>
   </si>
   <si>
     <t>III.2</t>
@@ -4776,7 +5077,7 @@
     <t>IV.1.3.1.1</t>
   </si>
   <si>
-    <t>Framework agreement with single operators</t>
+    <t>Framework agreement with single operator</t>
   </si>
   <si>
     <t>BT-778</t>
@@ -4800,7 +5101,7 @@
     <t>IV.1.3.1.3</t>
   </si>
   <si>
-    <t>Envisaged maximum number of participants to the framework</t>
+    <t>Envisaged maximum number of participants to the framework agreement</t>
   </si>
   <si>
     <t>BT-113</t>
@@ -4833,19 +5134,61 @@
     <t>PROCEDURE/DPS</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:DynamicPurchaseSystemTechniqueUsage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.3.2.1</t>
+  </si>
+  <si>
+    <t>The dynamic purchasing system might be used by additional purchasers</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
     <t>epo:DynamicPurchaseSystemTechniqueUsage / at-voc:dps-usage</t>
   </si>
   <si>
-    <t>?this epo:hasDPSScope ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.3.2.1</t>
-  </si>
-  <si>
-    <t>The dynamic purchasing system might be used by additional purchasers</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:hasDPSScope &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/dps-usage/dps-nlist</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
@@ -4890,7 +5233,7 @@
     <t>epo:Procedure / epo:Lot / epo:MultipleStageProcedureTerm / xsd:boolean</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasSuccessiveReduction ?value .</t>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasSuccessiveReduction true .</t>
   </si>
   <si>
     <t>IV.1.6</t>
@@ -4963,6 +5306,12 @@
     <t>GPA Coverage</t>
   </si>
   <si>
+    <t>IV.1.8.1</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
   </si>
   <si>
@@ -4973,7 +5322,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -4981,7 +5329,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isCoveredByGPA </t>
     </r>
@@ -4989,7 +5336,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>true</t>
     </r>
@@ -4997,12 +5343,17 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
   </si>
   <si>
+    <t>IV.1.8.2</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (no)</t>
+  </si>
+  <si>
     <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
   </si>
   <si>
@@ -5010,7 +5361,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -5018,7 +5368,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isCoveredByGPA </t>
     </r>
@@ -5026,7 +5375,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>false</t>
     </r>
@@ -5034,7 +5382,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5062,7 +5409,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">?this </t>
     </r>
@@ -5070,7 +5416,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b val="0"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue </t>
     </r>
@@ -5078,7 +5423,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?value .</t>
     </r>
@@ -5253,7 +5597,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5261,14 +5604,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasLanguage ?</t>
     </r>
@@ -5276,14 +5617,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5310,7 +5649,7 @@
     <t>PROCEDURE/DATE_TENDER_VALID</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
+    <t>epo:Procedure / epo:SubmissionTerm  / epo:Period / xsd:date</t>
   </si>
   <si>
     <r>
@@ -5333,7 +5672,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasValidityPeriod / epo:hasEnd ?</t>
     </r>
     <r>
       <rPr>
@@ -5367,6 +5706,15 @@
     <t>PROCEDURE/DURATION_TENDER_VALID</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:SubmissionTerm / epo:Period / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm  / epo:hasValidityPeriod / epo:hasDescription ?value .</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DURATION_TENDER_VALID/@TYPE</t>
+  </si>
+  <si>
     <t>epo:Procedure / epo:SubmissionTerm / epo:Period / at-voc:timeperiod</t>
   </si>
   <si>
@@ -5382,7 +5730,8 @@
     <t>IV.2.7.1</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Public Opening
+(Date/Time)</t>
   </si>
   <si>
     <t>BT-132</t>
@@ -5391,7 +5740,8 @@
     <t>Public Opening Date</t>
   </si>
   <si>
-    <t>PROCEDURE/OPENING_CONDITION/DATE_OPENING_TENDERS</t>
+    <t>PROCEDURE/OPENING_CONDITION/DATE_OPENING_TENDERS
+PROCEDURE/OPENING_CONDITION/TIME_OPENING_TENDERS</t>
   </si>
   <si>
     <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:dateTime</t>
@@ -5403,36 +5753,27 @@
     <t>IV.2.7.2</t>
   </si>
   <si>
-    <t>Local time</t>
-  </si>
-  <si>
-    <t>PROCEDURE/OPENING_CONDITION/TIME_OPENING_TENDERS</t>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>BT-133</t>
+  </si>
+  <si>
+    <t>Public Opening Place</t>
+  </si>
+  <si>
+    <t>PROCEDURE/OPENING_CONDITION/PLACE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm /  epo:definesOpeningPlace / locn:fullAddress ?value .</t>
   </si>
   <si>
     <t>IV.2.7.3</t>
   </si>
   <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>BT-133</t>
-  </si>
-  <si>
-    <t>Public Opening Place</t>
-  </si>
-  <si>
-    <t>PROCEDURE/OPENING_CONDITION/PLACE</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasOpeningURL ?value .</t>
-  </si>
-  <si>
-    <t>IV.2.7.4</t>
-  </si>
-  <si>
     <t>Information about authorised persons and opening procedure</t>
   </si>
   <si>
@@ -5475,13 +5816,28 @@
     <t>Recurrence</t>
   </si>
   <si>
+    <t>VI.1.1.1</t>
+  </si>
+  <si>
+    <t>This is a recurrent procurement (yes)</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT</t>
+  </si>
+  <si>
+    <t>?this epo:isRecurrent true .</t>
+  </si>
+  <si>
+    <t>VI.1.1.2</t>
+  </si>
+  <si>
+    <t>This is a recurrent procurement (no)</t>
+  </si>
+  <si>
     <t>COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT</t>
   </si>
   <si>
-    <t>?this epo:isRecurrent ?value .</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT</t>
+    <t>?this epo:isRecurrent false .</t>
   </si>
   <si>
     <t>VI.1.2</t>
@@ -5500,6 +5856,9 @@
   </si>
   <si>
     <t>?this epo:hasRecurrenceDescription ?value .</t>
+  </si>
+  <si>
+    <t>The &lt;P&gt; and &lt;FT&gt; tags should be removed in a post-processing step</t>
   </si>
   <si>
     <t>VI.2</t>
@@ -5608,6 +5967,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -5615,6 +5975,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:hasEPayment </t>
     </r>
@@ -5622,6 +5983,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>true .</t>
     </r>
@@ -7118,7 +7480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7217,12 +7579,17 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7239,6 +7606,21 @@
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7289,7 +7671,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7360,6 +7742,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -7459,7 +7847,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7746,7 +8134,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7761,13 +8149,31 @@
     <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7779,38 +8185,35 @@
     <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7821,31 +8224,37 @@
     <xf borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7857,22 +8266,7 @@
     <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7896,35 +8290,35 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7948,13 +8342,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7966,23 +8360,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -15056,10 +15450,10 @@
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="98" t="s">
+      <c r="A120" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="52" t="s">
         <v>498</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -15068,44 +15462,42 @@
       <c r="D120" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="35" t="s">
+      <c r="F120" s="36"/>
+      <c r="G120" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="B121" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>507</v>
+      <c r="A121" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>500</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F121" s="47"/>
       <c r="G121" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H121" s="99" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -15113,26 +15505,26 @@
     </row>
     <row r="122">
       <c r="A122" s="67" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B122" s="68" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F122" s="47"/>
       <c r="G122" s="4" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>69</v>
@@ -15142,26 +15534,26 @@
     </row>
     <row r="123">
       <c r="A123" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="B123" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="D123" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>517</v>
-      </c>
-      <c r="B123" s="68" t="s">
-        <v>518</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D123" s="58" t="s">
-        <v>500</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>519</v>
       </c>
       <c r="F123" s="47"/>
       <c r="G123" s="4" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>69</v>
@@ -15171,82 +15563,80 @@
     </row>
     <row r="124">
       <c r="A124" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E124" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="F124" s="36"/>
+      <c r="G124" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H124" s="60" t="s">
         <v>522</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E124" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H124" s="99" t="s">
-        <v>524</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="67" t="s">
-        <v>525</v>
-      </c>
-      <c r="B125" s="68" t="s">
-        <v>512</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>513</v>
-      </c>
-      <c r="D125" s="58" t="s">
-        <v>514</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>526</v>
+      <c r="A125" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="C125" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D125" s="98" t="s">
+        <v>500</v>
+      </c>
+      <c r="E125" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="F125" s="47"/>
       <c r="G125" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="H125" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
       <c r="A126" s="67" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B126" s="68" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C126" s="58" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E126" s="70" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F126" s="58"/>
       <c r="G126" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H126" s="70" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>69</v>
@@ -15255,155 +15645,165 @@
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="B127" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E127" s="61" t="s">
-        <v>531</v>
+      <c r="A127" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B127" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="C127" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="D127" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="E127" s="70" t="s">
+        <v>527</v>
       </c>
       <c r="F127" s="58"/>
       <c r="G127" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H127" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="I127" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="H127" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="B128" s="68" t="s">
-        <v>518</v>
-      </c>
-      <c r="C128" s="58" t="s">
+      <c r="A128" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="B128" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="7" t="s">
         <v>500</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F128" s="36"/>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="H128" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="H128" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="100" t="s">
-        <v>535</v>
-      </c>
-      <c r="B129" s="101" t="s">
-        <v>536</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="102" t="s">
-        <v>537</v>
-      </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="A129" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="B129" s="79" t="s">
+        <v>529</v>
+      </c>
+      <c r="C129" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" s="98" t="s">
+        <v>500</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F129" s="47"/>
+      <c r="G129" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H129" s="99" t="s">
+        <v>532</v>
+      </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="B130" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="7"/>
+      <c r="A130" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="F130" s="36"/>
+      <c r="G130" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="H130" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="51" t="s">
-        <v>540</v>
-      </c>
-      <c r="B131" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>542</v>
+      <c r="A131" s="100" t="s">
+        <v>535</v>
+      </c>
+      <c r="B131" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="102" t="s">
+        <v>537</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="76" t="s">
-        <v>543</v>
-      </c>
-      <c r="H131" s="75" t="s">
-        <v>544</v>
+      <c r="G131" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="H131" s="104" t="s">
+        <v>538</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="B132" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="A132" s="100" t="s">
+        <v>535</v>
+      </c>
+      <c r="B132" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="C132" s="7"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="4" t="s">
-        <v>546</v>
+      <c r="E132" s="105" t="s">
+        <v>537</v>
       </c>
       <c r="F132" s="4"/>
-      <c r="G132" s="59" t="s">
-        <v>547</v>
-      </c>
-      <c r="H132" s="59" t="s">
-        <v>548</v>
-      </c>
+      <c r="G132" s="106"/>
+      <c r="H132" s="106"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
       <c r="A133" s="45" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -15417,525 +15817,507 @@
     </row>
     <row r="134">
       <c r="A134" s="51" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="C134" s="103" t="s">
-        <v>553</v>
+        <v>400</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>554</v>
+        <v>402</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>557</v>
+      <c r="G134" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="H134" s="59" t="s">
+        <v>545</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="67" t="s">
-        <v>558</v>
-      </c>
-      <c r="B135" s="68"/>
-      <c r="C135" s="103"/>
+      <c r="A135" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="B135" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>562</v>
+        <v>547</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="H135" s="59" t="s">
+        <v>549</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="67" t="s">
-        <v>563</v>
-      </c>
-      <c r="B136" s="68"/>
-      <c r="C136" s="103"/>
+      <c r="A136" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="G136" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="51" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="C137" s="103" t="s">
-        <v>568</v>
+        <v>553</v>
+      </c>
+      <c r="C137" s="107" t="s">
+        <v>554</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="35" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="B138" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="C138" s="103" t="s">
-        <v>575</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>576</v>
-      </c>
+      <c r="A138" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="B138" s="68"/>
+      <c r="C138" s="107"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F138" s="4"/>
+        <v>560</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="G138" s="35" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="100" t="s">
-        <v>579</v>
-      </c>
-      <c r="B139" s="101" t="s">
-        <v>580</v>
-      </c>
-      <c r="C139" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="D139" s="104" t="s">
-        <v>582</v>
-      </c>
-      <c r="E139" s="105" t="s">
-        <v>583</v>
-      </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="106" t="s">
-        <v>584</v>
-      </c>
-      <c r="H139" s="106" t="s">
-        <v>585</v>
+      <c r="A139" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="B139" s="68"/>
+      <c r="C139" s="107"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G139" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="100" t="s">
-        <v>579</v>
-      </c>
-      <c r="B140" s="101" t="s">
-        <v>580</v>
-      </c>
-      <c r="C140" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="D140" s="104" t="s">
-        <v>582</v>
-      </c>
-      <c r="E140" s="105" t="s">
-        <v>586</v>
+      <c r="A140" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C140" s="107" t="s">
+        <v>569</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="106" t="s">
-        <v>584</v>
-      </c>
-      <c r="H140" s="106" t="s">
-        <v>585</v>
+      <c r="G140" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="100" t="s">
-        <v>587</v>
-      </c>
-      <c r="B141" s="101" t="s">
-        <v>588</v>
-      </c>
-      <c r="C141" s="106" t="s">
-        <v>589</v>
-      </c>
-      <c r="D141" s="104" t="s">
-        <v>590</v>
-      </c>
-      <c r="E141" s="105" t="s">
-        <v>591</v>
+      <c r="A141" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C141" s="108" t="s">
+        <v>576</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>578</v>
       </c>
       <c r="F141" s="4"/>
-      <c r="G141" s="106" t="s">
-        <v>592</v>
-      </c>
-      <c r="H141" s="106" t="s">
-        <v>593</v>
+      <c r="G141" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="107" t="s">
-        <v>594</v>
-      </c>
-      <c r="B142" s="108" t="s">
-        <v>595</v>
-      </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="96"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="96"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
+      <c r="A142" s="100" t="s">
+        <v>580</v>
+      </c>
+      <c r="B142" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="C142" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="D142" s="109" t="s">
+        <v>583</v>
+      </c>
+      <c r="E142" s="110" t="s">
+        <v>584</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="H142" s="111" t="s">
+        <v>586</v>
+      </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
       <c r="A143" s="100" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="B143" s="101" t="s">
-        <v>597</v>
-      </c>
-      <c r="C143" s="96" t="s">
-        <v>598</v>
-      </c>
-      <c r="D143" s="96" t="s">
-        <v>599</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="H143" s="109" t="s">
-        <v>602</v>
-      </c>
-      <c r="I143" s="104" t="s">
-        <v>603</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="C143" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="D143" s="109" t="s">
+        <v>583</v>
+      </c>
+      <c r="E143" s="110" t="s">
+        <v>587</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="H143" s="111" t="s">
+        <v>588</v>
+      </c>
+      <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="100" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B144" s="101" t="s">
-        <v>605</v>
-      </c>
-      <c r="C144" s="96" t="s">
-        <v>606</v>
-      </c>
-      <c r="D144" s="96" t="s">
-        <v>607</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="H144" s="109" t="s">
-        <v>609</v>
-      </c>
-      <c r="I144" s="104" t="s">
-        <v>603</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="C144" s="112" t="s">
+        <v>591</v>
+      </c>
+      <c r="D144" s="112" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="110" t="s">
+        <v>593</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="H144" s="111" t="s">
+        <v>595</v>
+      </c>
+      <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="100" t="s">
-        <v>610</v>
-      </c>
-      <c r="B145" s="101" t="s">
-        <v>611</v>
-      </c>
-      <c r="C145" s="96" t="s">
-        <v>598</v>
-      </c>
-      <c r="D145" s="96" t="s">
-        <v>612</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="H145" s="109" t="s">
-        <v>602</v>
-      </c>
-      <c r="I145" s="104" t="s">
-        <v>603</v>
-      </c>
+      <c r="A145" s="113" t="s">
+        <v>596</v>
+      </c>
+      <c r="B145" s="114" t="s">
+        <v>597</v>
+      </c>
+      <c r="C145" s="103"/>
+      <c r="D145" s="103"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="100" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B146" s="101" t="s">
-        <v>615</v>
-      </c>
-      <c r="C146" s="96" t="s">
-        <v>616</v>
-      </c>
-      <c r="D146" s="96" t="s">
-        <v>617</v>
-      </c>
-      <c r="E146" s="110" t="s">
-        <v>618</v>
-      </c>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="H146" s="36" t="s">
-        <v>620</v>
-      </c>
-      <c r="I146" s="7"/>
+        <v>599</v>
+      </c>
+      <c r="C146" s="115"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F146" s="110"/>
+      <c r="G146" s="106"/>
+      <c r="H146" s="106"/>
+      <c r="I146" s="112" t="s">
+        <v>601</v>
+      </c>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="107" t="s">
-        <v>621</v>
-      </c>
-      <c r="B147" s="108" t="s">
-        <v>622</v>
-      </c>
-      <c r="C147" s="96"/>
-      <c r="D147" s="96"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="7"/>
+      <c r="A147" s="100" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="101" t="s">
+        <v>603</v>
+      </c>
+      <c r="C147" s="103" t="s">
+        <v>604</v>
+      </c>
+      <c r="D147" s="103" t="s">
+        <v>605</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F147" s="110"/>
+      <c r="G147" s="106" t="s">
+        <v>607</v>
+      </c>
+      <c r="H147" s="106" t="s">
+        <v>608</v>
+      </c>
+      <c r="I147" s="112" t="s">
+        <v>601</v>
+      </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="100" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B148" s="101" t="s">
-        <v>624</v>
-      </c>
-      <c r="C148" s="96" t="s">
-        <v>625</v>
-      </c>
-      <c r="D148" s="96" t="s">
-        <v>626</v>
-      </c>
-      <c r="E148" s="110" t="s">
-        <v>627</v>
-      </c>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="H148" s="36" t="s">
-        <v>629</v>
-      </c>
-      <c r="I148" s="7"/>
+        <v>610</v>
+      </c>
+      <c r="C148" s="103" t="s">
+        <v>611</v>
+      </c>
+      <c r="D148" s="103" t="s">
+        <v>612</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F148" s="110"/>
+      <c r="G148" s="106" t="s">
+        <v>607</v>
+      </c>
+      <c r="H148" s="106" t="s">
+        <v>614</v>
+      </c>
+      <c r="I148" s="112" t="s">
+        <v>601</v>
+      </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="100" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B149" s="101" t="s">
-        <v>624</v>
-      </c>
-      <c r="C149" s="96" t="s">
-        <v>625</v>
-      </c>
-      <c r="D149" s="96" t="s">
-        <v>626</v>
+        <v>616</v>
+      </c>
+      <c r="C149" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="D149" s="103" t="s">
+        <v>618</v>
       </c>
       <c r="E149" s="110" t="s">
-        <v>630</v>
-      </c>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="H149" s="36" t="s">
-        <v>629</v>
+        <v>619</v>
+      </c>
+      <c r="F149" s="110"/>
+      <c r="G149" s="106" t="s">
+        <v>620</v>
+      </c>
+      <c r="H149" s="116" t="s">
+        <v>621</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="B150" s="46" t="s">
-        <v>632</v>
-      </c>
-      <c r="C150" s="47"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="36"/>
+      <c r="A150" s="113" t="s">
+        <v>622</v>
+      </c>
+      <c r="B150" s="114" t="s">
+        <v>623</v>
+      </c>
+      <c r="C150" s="110"/>
+      <c r="D150" s="103"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="110"/>
       <c r="H150" s="36"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="B151" s="52" t="s">
-        <v>634</v>
-      </c>
-      <c r="C151" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="D151" s="58" t="s">
-        <v>634</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="F151" s="35"/>
-      <c r="G151" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="H151" s="60" t="s">
-        <v>638</v>
+      <c r="A151" s="100" t="s">
+        <v>624</v>
+      </c>
+      <c r="B151" s="101" t="s">
+        <v>625</v>
+      </c>
+      <c r="C151" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="D151" s="103" t="s">
+        <v>627</v>
+      </c>
+      <c r="E151" s="110" t="s">
+        <v>628</v>
+      </c>
+      <c r="F151" s="110"/>
+      <c r="G151" s="110" t="s">
+        <v>629</v>
+      </c>
+      <c r="H151" s="117" t="s">
+        <v>630</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="78" t="s">
-        <v>633</v>
-      </c>
-      <c r="B152" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="C152" s="111" t="s">
-        <v>635</v>
-      </c>
-      <c r="D152" s="111" t="s">
-        <v>634</v>
-      </c>
-      <c r="E152" s="47" t="s">
-        <v>639</v>
-      </c>
-      <c r="F152" s="35"/>
-      <c r="G152" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="H152" s="47" t="s">
-        <v>640</v>
+      <c r="A152" s="100" t="s">
+        <v>624</v>
+      </c>
+      <c r="B152" s="101" t="s">
+        <v>625</v>
+      </c>
+      <c r="C152" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="D152" s="103" t="s">
+        <v>627</v>
+      </c>
+      <c r="E152" s="110" t="s">
+        <v>631</v>
+      </c>
+      <c r="F152" s="110"/>
+      <c r="G152" s="110" t="s">
+        <v>629</v>
+      </c>
+      <c r="H152" s="117" t="s">
+        <v>632</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="B153" s="52" t="s">
-        <v>642</v>
-      </c>
-      <c r="C153" s="58" t="s">
-        <v>643</v>
-      </c>
-      <c r="D153" s="58" t="s">
-        <v>644</v>
-      </c>
-      <c r="E153" s="47" t="s">
-        <v>645</v>
-      </c>
+      <c r="A153" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="B153" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="C153" s="58"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="35"/>
       <c r="F153" s="47"/>
-      <c r="G153" s="47" t="s">
-        <v>592</v>
-      </c>
-      <c r="H153" s="47" t="s">
-        <v>646</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="B154" s="108" t="s">
-        <v>648</v>
-      </c>
-      <c r="C154" s="96"/>
-      <c r="D154" s="96"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="36"/>
+      <c r="A154" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="C154" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="D154" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="E154" s="47"/>
+      <c r="F154" s="35"/>
       <c r="G154" s="36"/>
       <c r="H154" s="36"/>
       <c r="I154" s="7"/>
@@ -15943,732 +16325,812 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="100" t="s">
-        <v>649</v>
-      </c>
-      <c r="B155" s="101" t="s">
-        <v>650</v>
-      </c>
-      <c r="C155" s="96" t="s">
-        <v>651</v>
-      </c>
-      <c r="D155" s="96" t="s">
-        <v>652</v>
-      </c>
-      <c r="E155" s="110" t="s">
-        <v>653</v>
-      </c>
-      <c r="F155" s="36"/>
+      <c r="A155" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="B155" s="68" t="s">
+        <v>639</v>
+      </c>
+      <c r="C155" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="D155" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="F155" s="35"/>
       <c r="G155" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="H155" s="36" t="s">
-        <v>654</v>
+        <v>585</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>641</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="45" t="s">
-        <v>655</v>
-      </c>
-      <c r="B156" s="46" t="s">
-        <v>656</v>
-      </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="A156" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="B156" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="C156" s="96" t="s">
+        <v>637</v>
+      </c>
+      <c r="D156" s="96" t="s">
+        <v>636</v>
+      </c>
+      <c r="E156" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="F156" s="70"/>
+      <c r="G156" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="H156" s="47" t="s">
+        <v>645</v>
+      </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
       <c r="A157" s="51" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B157" s="52" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C157" s="58" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D157" s="58" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E157" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="F157" s="35"/>
+        <v>650</v>
+      </c>
+      <c r="F157" s="47"/>
       <c r="G157" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="H157" s="112" t="s">
-        <v>663</v>
-      </c>
-      <c r="I157" s="7"/>
+        <v>594</v>
+      </c>
+      <c r="H157" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="62" t="s">
-        <v>657</v>
-      </c>
-      <c r="B158" s="63" t="s">
-        <v>658</v>
-      </c>
-      <c r="C158" s="113" t="s">
-        <v>659</v>
-      </c>
-      <c r="D158" s="113" t="s">
-        <v>660</v>
-      </c>
-      <c r="E158" s="47" t="s">
-        <v>664</v>
-      </c>
-      <c r="F158" s="35"/>
-      <c r="G158" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="H158" s="112" t="s">
-        <v>665</v>
-      </c>
+      <c r="A158" s="113" t="s">
+        <v>652</v>
+      </c>
+      <c r="B158" s="114" t="s">
+        <v>653</v>
+      </c>
+      <c r="C158" s="103"/>
+      <c r="D158" s="103"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="110"/>
+      <c r="G158" s="110"/>
+      <c r="H158" s="36"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="51" t="s">
-        <v>666</v>
-      </c>
-      <c r="B159" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="C159" s="58" t="s">
-        <v>668</v>
-      </c>
-      <c r="D159" s="58" t="s">
-        <v>669</v>
-      </c>
-      <c r="E159" s="40" t="s">
-        <v>661</v>
-      </c>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47" t="s">
-        <v>670</v>
-      </c>
-      <c r="H159" s="112" t="s">
-        <v>671</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A159" s="100" t="s">
+        <v>654</v>
+      </c>
+      <c r="B159" s="101" t="s">
+        <v>655</v>
+      </c>
+      <c r="C159" s="103" t="s">
+        <v>656</v>
+      </c>
+      <c r="D159" s="103" t="s">
+        <v>657</v>
+      </c>
+      <c r="E159" s="110" t="s">
+        <v>658</v>
+      </c>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110" t="s">
+        <v>629</v>
+      </c>
+      <c r="H159" s="117" t="s">
+        <v>659</v>
+      </c>
+      <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
       <c r="A160" s="45" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B160" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>676</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H160" s="114" t="s">
-        <v>677</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="B161" s="88" t="s">
-        <v>679</v>
-      </c>
-      <c r="C161" s="96"/>
-      <c r="D161" s="96"/>
+      <c r="A161" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="B161" s="52" t="s">
+        <v>663</v>
+      </c>
+      <c r="C161" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="D161" s="58" t="s">
+        <v>665</v>
+      </c>
       <c r="E161" s="47"/>
-      <c r="F161" s="36"/>
+      <c r="F161" s="35"/>
       <c r="G161" s="47"/>
-      <c r="H161" s="47"/>
+      <c r="H161" s="36"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="B162" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C162" s="96"/>
-      <c r="D162" s="96"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="47"/>
+      <c r="A162" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="B162" s="68" t="s">
+        <v>667</v>
+      </c>
+      <c r="C162" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="D162" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="E162" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="F162" s="35"/>
+      <c r="G162" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="H162" s="118" t="s">
+        <v>670</v>
+      </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="107" t="s">
+      <c r="A163" s="67" t="s">
+        <v>671</v>
+      </c>
+      <c r="B163" s="68" t="s">
+        <v>672</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E163" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="F163" s="70"/>
+      <c r="G163" s="58" t="s">
+        <v>669</v>
+      </c>
+      <c r="H163" s="119" t="s">
+        <v>674</v>
+      </c>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="B164" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="C164" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="D164" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="E164" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47" t="s">
+        <v>679</v>
+      </c>
+      <c r="H164" s="118" t="s">
+        <v>680</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="B165" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="B163" s="108" t="s">
+      <c r="C165" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="96"/>
-      <c r="E163" s="115"/>
-      <c r="F163" s="96"/>
-      <c r="G163" s="58"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="96"/>
-      <c r="J163" s="96"/>
-      <c r="K163" s="96"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="100" t="s">
+      <c r="D165" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="B164" s="101" t="s">
+      <c r="E165" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="C164" s="116" t="s">
+      <c r="F165" s="7"/>
+      <c r="G165" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H165" s="120" t="s">
         <v>686</v>
       </c>
-      <c r="D164" s="104" t="s">
-        <v>687</v>
-      </c>
-      <c r="E164" s="105" t="s">
-        <v>688</v>
-      </c>
-      <c r="F164" s="36"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
-      <c r="I164" s="96"/>
-      <c r="J164" s="96"/>
-      <c r="K164" s="96"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="107" t="s">
-        <v>689</v>
-      </c>
-      <c r="B165" s="108" t="s">
-        <v>690</v>
-      </c>
-      <c r="C165" s="116"/>
-      <c r="D165" s="116"/>
-      <c r="E165" s="116"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="96"/>
-      <c r="H165" s="96"/>
-      <c r="I165" s="7"/>
+      <c r="I165" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="100" t="s">
-        <v>691</v>
-      </c>
-      <c r="B166" s="101" t="s">
-        <v>692</v>
-      </c>
-      <c r="C166" s="105" t="s">
-        <v>693</v>
-      </c>
-      <c r="D166" s="105" t="s">
-        <v>694</v>
-      </c>
-      <c r="E166" s="105" t="s">
-        <v>695</v>
-      </c>
-      <c r="F166" s="105"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
+      <c r="A166" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="B166" s="88" t="s">
+        <v>688</v>
+      </c>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="47"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="100" t="s">
-        <v>696</v>
-      </c>
-      <c r="B167" s="101" t="s">
-        <v>697</v>
-      </c>
-      <c r="C167" s="116" t="s">
-        <v>686</v>
-      </c>
-      <c r="D167" s="104" t="s">
-        <v>687</v>
-      </c>
-      <c r="E167" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="F167" s="105"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
+      <c r="A167" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="B167" s="39" t="s">
+        <v>690</v>
+      </c>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="100" t="s">
+      <c r="A168" s="113" t="s">
+        <v>691</v>
+      </c>
+      <c r="B168" s="114" t="s">
+        <v>692</v>
+      </c>
+      <c r="C168" s="96"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="121" t="s">
+        <v>693</v>
+      </c>
+      <c r="F168" s="122"/>
+      <c r="G168" s="110" t="s">
+        <v>694</v>
+      </c>
+      <c r="H168" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="I168" s="96"/>
+      <c r="J168" s="96"/>
+      <c r="K168" s="96"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="100" t="s">
+        <v>696</v>
+      </c>
+      <c r="B169" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="C169" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="D169" s="112" t="s">
+        <v>618</v>
+      </c>
+      <c r="E169" s="121" t="s">
+        <v>698</v>
+      </c>
+      <c r="F169" s="122"/>
+      <c r="G169" s="110" t="s">
         <v>699</v>
       </c>
-      <c r="B168" s="101" t="s">
+      <c r="H169" s="110" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="116" t="s">
-        <v>686</v>
-      </c>
-      <c r="D168" s="104" t="s">
-        <v>687</v>
-      </c>
-      <c r="E168" s="117" t="s">
+      <c r="I169" s="96"/>
+      <c r="J169" s="96"/>
+      <c r="K169" s="96"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="113" t="s">
         <v>701</v>
       </c>
-      <c r="F168" s="117"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="107" t="s">
+      <c r="B170" s="114" t="s">
         <v>702</v>
       </c>
-      <c r="B169" s="108" t="s">
+      <c r="C170" s="103" t="s">
         <v>703</v>
       </c>
-      <c r="C169" s="96"/>
-      <c r="D169" s="96"/>
-      <c r="E169" s="118"/>
-      <c r="F169" s="119"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="100" t="s">
+      <c r="D170" s="103" t="s">
         <v>704</v>
       </c>
-      <c r="B170" s="101" t="s">
-        <v>692</v>
-      </c>
-      <c r="C170" s="116" t="s">
-        <v>693</v>
-      </c>
-      <c r="D170" s="116" t="s">
+      <c r="E170" s="121" t="s">
+        <v>705</v>
+      </c>
+      <c r="F170" s="122"/>
+      <c r="G170" s="103" t="s">
         <v>694</v>
       </c>
-      <c r="E170" s="117" t="s">
-        <v>705</v>
-      </c>
-      <c r="F170" s="119"/>
-      <c r="G170" s="58"/>
-      <c r="H170" s="58"/>
+      <c r="H170" s="123" t="s">
+        <v>706</v>
+      </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
       <c r="A171" s="100" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B171" s="101" t="s">
-        <v>697</v>
-      </c>
-      <c r="C171" s="116" t="s">
-        <v>686</v>
-      </c>
-      <c r="D171" s="106" t="s">
-        <v>687</v>
-      </c>
-      <c r="E171" s="117" t="s">
-        <v>707</v>
-      </c>
-      <c r="F171" s="119"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
+        <v>708</v>
+      </c>
+      <c r="C171" s="115"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="121" t="s">
+        <v>709</v>
+      </c>
+      <c r="F171" s="122"/>
+      <c r="G171" s="116"/>
+      <c r="H171" s="116"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
       <c r="A172" s="100" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B172" s="101" t="s">
-        <v>709</v>
-      </c>
-      <c r="C172" s="116" t="s">
-        <v>686</v>
-      </c>
-      <c r="D172" s="104" t="s">
-        <v>687</v>
-      </c>
-      <c r="E172" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="F172" s="119"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
+        <v>711</v>
+      </c>
+      <c r="C172" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="D172" s="112" t="s">
+        <v>618</v>
+      </c>
+      <c r="E172" s="121" t="s">
+        <v>712</v>
+      </c>
+      <c r="F172" s="122"/>
+      <c r="G172" s="103" t="s">
+        <v>699</v>
+      </c>
+      <c r="H172" s="103" t="s">
+        <v>700</v>
+      </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="45" t="s">
-        <v>711</v>
-      </c>
-      <c r="B173" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="C173" s="96"/>
-      <c r="D173" s="96"/>
-      <c r="E173" s="118"/>
-      <c r="F173" s="119"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
+      <c r="A173" s="100" t="s">
+        <v>713</v>
+      </c>
+      <c r="B173" s="101" t="s">
+        <v>714</v>
+      </c>
+      <c r="C173" s="109" t="s">
+        <v>617</v>
+      </c>
+      <c r="D173" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E173" s="121" t="s">
+        <v>715</v>
+      </c>
+      <c r="F173" s="122"/>
+      <c r="G173" s="116" t="s">
+        <v>716</v>
+      </c>
+      <c r="H173" s="116" t="s">
+        <v>717</v>
+      </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="51" t="s">
-        <v>713</v>
-      </c>
-      <c r="B174" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="C174" s="96" t="s">
-        <v>686</v>
-      </c>
-      <c r="D174" s="96"/>
-      <c r="E174" s="118" t="s">
-        <v>715</v>
-      </c>
-      <c r="F174" s="119"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A174" s="113" t="s">
+        <v>718</v>
+      </c>
+      <c r="B174" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="C174" s="103" t="s">
+        <v>703</v>
+      </c>
+      <c r="D174" s="103" t="s">
+        <v>704</v>
+      </c>
+      <c r="E174" s="121" t="s">
+        <v>720</v>
+      </c>
+      <c r="F174" s="122"/>
+      <c r="G174" s="110" t="s">
+        <v>694</v>
+      </c>
+      <c r="H174" s="117" t="s">
+        <v>721</v>
+      </c>
+      <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="45" t="s">
-        <v>717</v>
-      </c>
-      <c r="B175" s="46" t="s">
-        <v>718</v>
-      </c>
-      <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
-      <c r="E175" s="118"/>
-      <c r="F175" s="119"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47"/>
+      <c r="A175" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="B175" s="101" t="s">
+        <v>708</v>
+      </c>
+      <c r="C175" s="115"/>
+      <c r="D175" s="115"/>
+      <c r="E175" s="121" t="s">
+        <v>723</v>
+      </c>
+      <c r="F175" s="122"/>
+      <c r="G175" s="116"/>
+      <c r="H175" s="116"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="B176" s="52" t="s">
-        <v>720</v>
-      </c>
-      <c r="C176" s="96" t="s">
-        <v>721</v>
-      </c>
-      <c r="D176" s="58"/>
-      <c r="E176" s="118" t="s">
-        <v>722</v>
-      </c>
-      <c r="F176" s="119"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47"/>
+      <c r="A176" s="100" t="s">
+        <v>724</v>
+      </c>
+      <c r="B176" s="101" t="s">
+        <v>711</v>
+      </c>
+      <c r="C176" s="103" t="s">
+        <v>617</v>
+      </c>
+      <c r="D176" s="112" t="s">
+        <v>618</v>
+      </c>
+      <c r="E176" s="121" t="s">
+        <v>725</v>
+      </c>
+      <c r="F176" s="122"/>
+      <c r="G176" s="110" t="s">
+        <v>699</v>
+      </c>
+      <c r="H176" s="110" t="s">
+        <v>700</v>
+      </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7" t="s">
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="B177" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C177" s="109" t="s">
+        <v>617</v>
+      </c>
+      <c r="D177" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E177" s="121" t="s">
+        <v>728</v>
+      </c>
+      <c r="F177" s="122"/>
+      <c r="G177" s="116" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="51" t="s">
-        <v>723</v>
-      </c>
-      <c r="B177" s="52" t="s">
-        <v>724</v>
-      </c>
-      <c r="C177" s="96" t="s">
-        <v>725</v>
-      </c>
-      <c r="D177" s="96"/>
-      <c r="E177" s="118" t="s">
-        <v>726</v>
-      </c>
-      <c r="F177" s="119"/>
-      <c r="G177" s="47"/>
-      <c r="H177" s="47"/>
+      <c r="H177" s="116" t="s">
+        <v>717</v>
+      </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="107" t="s">
-        <v>727</v>
-      </c>
-      <c r="B178" s="108" t="s">
-        <v>728</v>
-      </c>
-      <c r="C178" s="104" t="s">
+      <c r="A178" s="45" t="s">
         <v>729</v>
       </c>
-      <c r="D178" s="104" t="s">
+      <c r="B178" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="E178" s="98" t="s">
-        <v>731</v>
-      </c>
-      <c r="F178" s="18"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
+      <c r="C178" s="96"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="124"/>
+      <c r="F178" s="122"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="47"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="107" t="s">
+      <c r="A179" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="B179" s="52" t="s">
         <v>732</v>
       </c>
-      <c r="B179" s="108" t="s">
+      <c r="C179" s="36" t="s">
         <v>733</v>
       </c>
-      <c r="C179" s="106" t="s">
+      <c r="D179" s="96"/>
+      <c r="E179" s="124" t="s">
         <v>734</v>
       </c>
-      <c r="D179" s="104" t="s">
+      <c r="F179" s="122"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E179" s="98" t="s">
+    </row>
+    <row r="180">
+      <c r="A180" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="F179" s="18"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="107" t="s">
+      <c r="B180" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="B180" s="108" t="s">
-        <v>738</v>
-      </c>
-      <c r="C180" s="104" t="s">
-        <v>739</v>
-      </c>
-      <c r="D180" s="104" t="s">
-        <v>740</v>
-      </c>
-      <c r="E180" s="106" t="s">
-        <v>741</v>
-      </c>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
+      <c r="C180" s="96"/>
+      <c r="D180" s="96"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="47"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="B181" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
+      <c r="A181" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="B181" s="52" t="s">
+        <v>739</v>
+      </c>
+      <c r="C181" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="D181" s="58"/>
+      <c r="E181" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="F181" s="36"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
+      <c r="K181" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="45" t="s">
+      <c r="A182" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="B182" s="52" t="s">
+        <v>743</v>
+      </c>
+      <c r="C182" s="96" t="s">
         <v>744</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="D182" s="96"/>
+      <c r="E182" s="47" t="s">
         <v>745</v>
       </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="51" t="s">
+      <c r="A183" s="113" t="s">
         <v>746</v>
       </c>
-      <c r="B183" s="52" t="s">
+      <c r="B183" s="114" t="s">
         <v>747</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="4" t="s">
+      <c r="C183" s="112" t="s">
         <v>748</v>
       </c>
+      <c r="D183" s="112" t="s">
+        <v>749</v>
+      </c>
+      <c r="E183" s="111" t="s">
+        <v>750</v>
+      </c>
       <c r="F183" s="7"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
+      <c r="G183" s="110" t="s">
+        <v>751</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>752</v>
+      </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="100" t="s">
+      <c r="A184" s="113" t="s">
+        <v>746</v>
+      </c>
+      <c r="B184" s="114" t="s">
+        <v>747</v>
+      </c>
+      <c r="C184" s="112" t="s">
+        <v>748</v>
+      </c>
+      <c r="D184" s="112" t="s">
         <v>749</v>
       </c>
-      <c r="B184" s="52" t="s">
-        <v>750</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D184" s="7"/>
-      <c r="E184" s="4" t="s">
-        <v>752</v>
+      <c r="E184" s="111" t="s">
+        <v>753</v>
       </c>
       <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G184" s="110" t="s">
+        <v>754</v>
+      </c>
+      <c r="H184" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="K184" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="45" t="s">
-        <v>753</v>
-      </c>
-      <c r="B185" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="4" t="s">
+      <c r="A185" s="113" t="s">
         <v>756</v>
       </c>
+      <c r="B185" s="114" t="s">
+        <v>757</v>
+      </c>
+      <c r="C185" s="112" t="s">
+        <v>758</v>
+      </c>
+      <c r="D185" s="112" t="s">
+        <v>759</v>
+      </c>
+      <c r="E185" s="111" t="s">
+        <v>760</v>
+      </c>
       <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
+      <c r="G185" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="H185" s="111" t="s">
+        <v>761</v>
+      </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="B186" s="46" t="s">
-        <v>758</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="4"/>
+      <c r="A186" s="113" t="s">
+        <v>762</v>
+      </c>
+      <c r="B186" s="114" t="s">
+        <v>763</v>
+      </c>
+      <c r="C186" s="112" t="s">
+        <v>764</v>
+      </c>
+      <c r="D186" s="112" t="s">
+        <v>765</v>
+      </c>
+      <c r="E186" s="111" t="s">
+        <v>766</v>
+      </c>
       <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
+      <c r="G186" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="H186" s="111" t="s">
+        <v>767</v>
+      </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="51" t="s">
-        <v>759</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>760</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="4" t="s">
+      <c r="A187" s="113" t="s">
         <v>762</v>
       </c>
+      <c r="B187" s="114" t="s">
+        <v>763</v>
+      </c>
+      <c r="C187" s="112" t="s">
+        <v>764</v>
+      </c>
+      <c r="D187" s="112" t="s">
+        <v>765</v>
+      </c>
+      <c r="E187" s="111" t="s">
+        <v>768</v>
+      </c>
       <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
+      <c r="G187" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="H187" s="111" t="s">
+        <v>769</v>
+      </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="K187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="38" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B188" s="39" t="s">
-        <v>8</v>
+        <v>771</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -16682,10 +17144,10 @@
     </row>
     <row r="189">
       <c r="A189" s="45" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B189" s="46" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
@@ -16699,149 +17161,123 @@
     </row>
     <row r="190">
       <c r="A190" s="51" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B190" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="C190" s="96" t="s">
-        <v>768</v>
-      </c>
-      <c r="D190" s="96" t="s">
-        <v>769</v>
-      </c>
-      <c r="E190" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="F190" s="47"/>
-      <c r="G190" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="H190" s="60" t="s">
-        <v>772</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D190" s="7"/>
+      <c r="E190" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
+      <c r="K190" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="51" t="s">
-        <v>773</v>
+      <c r="A191" s="100" t="s">
+        <v>777</v>
       </c>
       <c r="B191" s="52" t="s">
-        <v>774</v>
-      </c>
-      <c r="C191" s="96" t="s">
-        <v>768</v>
-      </c>
-      <c r="D191" s="96" t="s">
-        <v>769</v>
-      </c>
-      <c r="E191" s="47" t="s">
-        <v>775</v>
-      </c>
-      <c r="F191" s="47"/>
-      <c r="G191" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="H191" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="I191" s="7"/>
+        <v>778</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D191" s="7"/>
+      <c r="E191" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
+      <c r="K191" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="51" t="s">
-        <v>777</v>
-      </c>
-      <c r="B192" s="52" t="s">
-        <v>778</v>
-      </c>
-      <c r="C192" s="96" t="s">
-        <v>768</v>
-      </c>
-      <c r="D192" s="96" t="s">
-        <v>769</v>
-      </c>
-      <c r="E192" s="59" t="s">
-        <v>779</v>
-      </c>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59" t="s">
-        <v>771</v>
-      </c>
-      <c r="H192" s="59" t="s">
-        <v>780</v>
-      </c>
+      <c r="A192" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="B192" s="46" t="s">
+        <v>782</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
+      <c r="K192" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="51" t="s">
-        <v>781</v>
-      </c>
-      <c r="B193" s="52" t="s">
-        <v>782</v>
-      </c>
-      <c r="C193" s="96" t="s">
-        <v>768</v>
-      </c>
-      <c r="D193" s="96" t="s">
-        <v>769</v>
-      </c>
-      <c r="E193" s="47" t="s">
-        <v>783</v>
-      </c>
-      <c r="F193" s="47"/>
-      <c r="G193" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="H193" s="47" t="s">
-        <v>784</v>
-      </c>
+      <c r="A193" s="45" t="s">
+        <v>785</v>
+      </c>
+      <c r="B193" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
       <c r="A194" s="51" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B194" s="52" t="s">
-        <v>786</v>
-      </c>
-      <c r="C194" s="96" t="s">
-        <v>768</v>
-      </c>
-      <c r="D194" s="96" t="s">
-        <v>769</v>
-      </c>
-      <c r="E194" s="47" t="s">
-        <v>787</v>
-      </c>
-      <c r="F194" s="58"/>
-      <c r="G194" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="H194" s="47" t="s">
         <v>788</v>
       </c>
+      <c r="C194" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-      <c r="K194" s="7"/>
+      <c r="K194" s="7" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="45" t="s">
-        <v>789</v>
-      </c>
-      <c r="B195" s="46" t="s">
-        <v>790</v>
-      </c>
-      <c r="C195" s="120" t="s">
+      <c r="A195" s="38" t="s">
         <v>791</v>
       </c>
+      <c r="B195" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -16852,100 +17288,98 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="51" t="s">
+      <c r="A196" s="45" t="s">
         <v>792</v>
       </c>
-      <c r="B196" s="52" t="s">
+      <c r="B196" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="C196" s="96" t="s">
-        <v>794</v>
-      </c>
-      <c r="D196" s="96" t="s">
-        <v>795</v>
-      </c>
-      <c r="E196" s="47" t="s">
-        <v>796</v>
-      </c>
-      <c r="F196" s="47"/>
-      <c r="G196" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="H196" s="36" t="s">
-        <v>798</v>
-      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="121" t="s">
+      <c r="A197" s="51" t="s">
+        <v>794</v>
+      </c>
+      <c r="B197" s="52" t="s">
+        <v>795</v>
+      </c>
+      <c r="C197" s="96" t="s">
+        <v>796</v>
+      </c>
+      <c r="D197" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="E197" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="F197" s="47"/>
+      <c r="G197" s="36" t="s">
         <v>799</v>
       </c>
-      <c r="B197" s="122" t="s">
+      <c r="H197" s="60" t="s">
         <v>800</v>
       </c>
-      <c r="C197" s="104" t="s">
-        <v>801</v>
-      </c>
-      <c r="D197" s="96" t="s">
-        <v>802</v>
-      </c>
-      <c r="E197" s="106" t="s">
-        <v>803</v>
-      </c>
-      <c r="F197" s="106"/>
-      <c r="G197" s="106"/>
-      <c r="H197" s="4"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="121" t="s">
+      <c r="A198" s="51" t="s">
+        <v>801</v>
+      </c>
+      <c r="B198" s="52" t="s">
+        <v>802</v>
+      </c>
+      <c r="C198" s="96" t="s">
+        <v>796</v>
+      </c>
+      <c r="D198" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="E198" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F198" s="47"/>
+      <c r="G198" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="H198" s="60" t="s">
         <v>804</v>
       </c>
-      <c r="B198" s="122" t="s">
-        <v>805</v>
-      </c>
-      <c r="C198" s="104" t="s">
-        <v>801</v>
-      </c>
-      <c r="D198" s="96" t="s">
-        <v>802</v>
-      </c>
-      <c r="E198" s="106" t="s">
-        <v>806</v>
-      </c>
-      <c r="F198" s="106"/>
-      <c r="G198" s="106"/>
-      <c r="H198" s="4"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="121" t="s">
+      <c r="A199" s="51" t="s">
+        <v>805</v>
+      </c>
+      <c r="B199" s="52" t="s">
+        <v>806</v>
+      </c>
+      <c r="C199" s="96" t="s">
+        <v>796</v>
+      </c>
+      <c r="D199" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="E199" s="59" t="s">
         <v>807</v>
       </c>
-      <c r="B199" s="122" t="s">
+      <c r="F199" s="59"/>
+      <c r="G199" s="59" t="s">
+        <v>799</v>
+      </c>
+      <c r="H199" s="59" t="s">
         <v>808</v>
-      </c>
-      <c r="C199" s="104" t="s">
-        <v>809</v>
-      </c>
-      <c r="D199" s="104" t="s">
-        <v>810</v>
-      </c>
-      <c r="E199" s="106" t="s">
-        <v>811</v>
-      </c>
-      <c r="F199" s="106"/>
-      <c r="G199" s="106" t="s">
-        <v>812</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -16953,1153 +17387,1127 @@
     </row>
     <row r="200">
       <c r="A200" s="51" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B200" s="52" t="s">
-        <v>815</v>
-      </c>
-      <c r="C200" s="106" t="s">
-        <v>816</v>
-      </c>
-      <c r="D200" s="104" t="s">
-        <v>817</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="106" t="s">
-        <v>819</v>
-      </c>
-      <c r="H200" s="106" t="s">
-        <v>820</v>
+        <v>810</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="D200" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="E200" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="F200" s="47"/>
+      <c r="G200" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="H200" s="47" t="s">
+        <v>812</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="121" t="s">
-        <v>821</v>
-      </c>
-      <c r="B201" s="122" t="s">
-        <v>822</v>
-      </c>
-      <c r="C201" s="104" t="s">
+      <c r="A201" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="B201" s="52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C201" s="96" t="s">
+        <v>796</v>
+      </c>
+      <c r="D201" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="E201" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="F201" s="47"/>
+      <c r="G201" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="H201" s="47" t="s">
         <v>816</v>
       </c>
-      <c r="D201" s="104" t="s">
-        <v>817</v>
-      </c>
-      <c r="E201" s="106" t="s">
-        <v>823</v>
-      </c>
-      <c r="F201" s="4"/>
-      <c r="G201" s="106" t="s">
-        <v>819</v>
-      </c>
-      <c r="H201" s="106" t="s">
-        <v>820</v>
-      </c>
-      <c r="I201" s="104"/>
+      <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="51" t="s">
-        <v>814</v>
-      </c>
-      <c r="B202" s="52" t="s">
-        <v>824</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>825</v>
+      <c r="A202" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="B202" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="C202" s="125" t="s">
+        <v>819</v>
       </c>
       <c r="D202" s="7"/>
-      <c r="E202" s="4" t="s">
-        <v>826</v>
-      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="I202" s="7" t="s">
-        <v>829</v>
-      </c>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="123" t="s">
-        <v>830</v>
-      </c>
-      <c r="B203" s="108" t="s">
-        <v>831</v>
-      </c>
-      <c r="C203" s="104"/>
-      <c r="D203" s="96"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="36"/>
-      <c r="H203" s="36"/>
+      <c r="A203" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="B203" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="C203" s="96" t="s">
+        <v>822</v>
+      </c>
+      <c r="D203" s="96" t="s">
+        <v>823</v>
+      </c>
+      <c r="E203" s="47" t="s">
+        <v>824</v>
+      </c>
+      <c r="F203" s="47"/>
+      <c r="G203" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="H203" s="36" t="s">
+        <v>826</v>
+      </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="100" t="s">
-        <v>832</v>
-      </c>
-      <c r="B204" s="101" t="s">
-        <v>833</v>
-      </c>
-      <c r="C204" s="124" t="s">
-        <v>834</v>
-      </c>
-      <c r="D204" s="125" t="s">
-        <v>835</v>
-      </c>
-      <c r="E204" s="36" t="s">
-        <v>836</v>
-      </c>
-      <c r="F204" s="36"/>
-      <c r="G204" s="36" t="s">
-        <v>837</v>
-      </c>
-      <c r="H204" s="36" t="s">
-        <v>838</v>
-      </c>
+      <c r="A204" s="126" t="s">
+        <v>827</v>
+      </c>
+      <c r="B204" s="127" t="s">
+        <v>828</v>
+      </c>
+      <c r="C204" s="128" t="s">
+        <v>829</v>
+      </c>
+      <c r="D204" s="128" t="s">
+        <v>830</v>
+      </c>
+      <c r="E204" s="111" t="s">
+        <v>831</v>
+      </c>
+      <c r="F204" s="111"/>
+      <c r="G204" s="106"/>
+      <c r="H204" s="106"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="45" t="s">
-        <v>839</v>
-      </c>
-      <c r="B205" s="46" t="s">
-        <v>840</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="D205" s="96"/>
-      <c r="E205" s="96"/>
-      <c r="F205" s="96"/>
-      <c r="G205" s="96"/>
-      <c r="H205" s="96"/>
+      <c r="A205" s="126" t="s">
+        <v>832</v>
+      </c>
+      <c r="B205" s="127" t="s">
+        <v>833</v>
+      </c>
+      <c r="C205" s="115" t="s">
+        <v>829</v>
+      </c>
+      <c r="D205" s="115" t="s">
+        <v>830</v>
+      </c>
+      <c r="E205" s="112" t="s">
+        <v>834</v>
+      </c>
+      <c r="F205" s="112"/>
+      <c r="G205" s="115"/>
+      <c r="H205" s="115"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="51" t="s">
+      <c r="A206" s="126" t="s">
+        <v>835</v>
+      </c>
+      <c r="B206" s="127" t="s">
+        <v>836</v>
+      </c>
+      <c r="C206" s="112" t="s">
+        <v>837</v>
+      </c>
+      <c r="D206" s="112" t="s">
+        <v>838</v>
+      </c>
+      <c r="E206" s="111" t="s">
+        <v>839</v>
+      </c>
+      <c r="F206" s="112"/>
+      <c r="G206" s="112" t="s">
+        <v>840</v>
+      </c>
+      <c r="H206" s="112" t="s">
         <v>841</v>
-      </c>
-      <c r="B206" s="52" t="s">
-        <v>842</v>
-      </c>
-      <c r="C206" s="96" t="s">
-        <v>843</v>
-      </c>
-      <c r="D206" s="96" t="s">
-        <v>844</v>
-      </c>
-      <c r="E206" s="47" t="s">
-        <v>845</v>
-      </c>
-      <c r="F206" s="58"/>
-      <c r="G206" s="96" t="s">
-        <v>846</v>
-      </c>
-      <c r="H206" s="126" t="s">
-        <v>847</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="51" t="s">
+        <v>842</v>
+      </c>
+      <c r="B207" s="52" t="s">
+        <v>843</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H207" s="97" t="s">
         <v>848</v>
-      </c>
-      <c r="B207" s="46" t="s">
-        <v>849</v>
-      </c>
-      <c r="C207" s="96" t="s">
-        <v>850</v>
-      </c>
-      <c r="D207" s="96" t="s">
-        <v>851</v>
-      </c>
-      <c r="E207" s="47" t="s">
-        <v>852</v>
-      </c>
-      <c r="F207" s="36"/>
-      <c r="G207" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="H207" s="60" t="s">
-        <v>854</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="127" t="s">
-        <v>848</v>
-      </c>
-      <c r="B208" s="128" t="s">
+      <c r="A208" s="126" t="s">
         <v>849</v>
       </c>
-      <c r="C208" s="113" t="s">
+      <c r="B208" s="127" t="s">
         <v>850</v>
       </c>
-      <c r="D208" s="113" t="s">
+      <c r="C208" s="112" t="s">
+        <v>844</v>
+      </c>
+      <c r="D208" s="112" t="s">
+        <v>845</v>
+      </c>
+      <c r="E208" s="111" t="s">
         <v>851</v>
       </c>
-      <c r="E208" s="47" t="s">
-        <v>855</v>
-      </c>
-      <c r="F208" s="96"/>
-      <c r="G208" s="36" t="s">
+      <c r="F208" s="7"/>
+      <c r="G208" s="111" t="s">
+        <v>852</v>
+      </c>
+      <c r="H208" s="129" t="s">
         <v>853</v>
       </c>
-      <c r="H208" s="60" t="s">
-        <v>856</v>
-      </c>
-      <c r="I208" s="7"/>
+      <c r="I208" s="112"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="38" t="s">
+      <c r="A209" s="51" t="s">
+        <v>842</v>
+      </c>
+      <c r="B209" s="52" t="s">
+        <v>854</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D209" s="7"/>
+      <c r="E209" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="F209" s="7"/>
+      <c r="G209" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B209" s="39" t="s">
+      <c r="H209" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-      <c r="I209" s="7"/>
+      <c r="I209" s="7" t="s">
+        <v>859</v>
+      </c>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="45" t="s">
-        <v>859</v>
-      </c>
-      <c r="B210" s="46" t="s">
+      <c r="A210" s="130" t="s">
         <v>860</v>
       </c>
-      <c r="C210" s="96"/>
-      <c r="D210" s="96"/>
-      <c r="E210" s="118" t="s">
+      <c r="B210" s="114" t="s">
         <v>861</v>
       </c>
-      <c r="F210" s="119"/>
-      <c r="G210" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H210" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="I210" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="C210" s="112"/>
+      <c r="D210" s="103"/>
+      <c r="E210" s="122"/>
+      <c r="F210" s="122"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="45" t="s">
+      <c r="A211" s="100" t="s">
+        <v>862</v>
+      </c>
+      <c r="B211" s="101" t="s">
+        <v>863</v>
+      </c>
+      <c r="C211" s="112" t="s">
         <v>864</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="D211" s="103" t="s">
         <v>865</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D211" s="7"/>
-      <c r="E211" s="82" t="s">
+      <c r="E211" s="121" t="s">
         <v>866</v>
       </c>
-      <c r="F211" s="82" t="s">
+      <c r="F211" s="122"/>
+      <c r="G211" s="115" t="s">
         <v>867</v>
       </c>
-      <c r="G211" s="70" t="s">
+      <c r="H211" s="115" t="s">
         <v>868</v>
-      </c>
-      <c r="H211" s="70" t="s">
-        <v>869</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-      <c r="K211" s="70" t="s">
-        <v>870</v>
-      </c>
+      <c r="K211" s="7"/>
     </row>
     <row r="212">
       <c r="A212" s="45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="129" t="s">
-        <v>866</v>
-      </c>
-      <c r="F212" s="82" t="s">
-        <v>872</v>
-      </c>
-      <c r="G212" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="H212" s="35" t="s">
-        <v>873</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="D212" s="96"/>
+      <c r="E212" s="122"/>
+      <c r="F212" s="122"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-      <c r="K212" s="70" t="s">
+      <c r="K212" s="7"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="B213" s="52" t="s">
+        <v>872</v>
+      </c>
+      <c r="C213" s="96" t="s">
+        <v>873</v>
+      </c>
+      <c r="D213" s="96" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="45" t="s">
+      <c r="E213" s="124" t="s">
         <v>875</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="F213" s="124"/>
+      <c r="G213" s="36" t="s">
         <v>876</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="H213" s="60" t="s">
         <v>877</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="82" t="s">
-        <v>878</v>
-      </c>
-      <c r="F213" s="18"/>
-      <c r="G213" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="H213" s="35" t="s">
-        <v>880</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="107" t="s">
+      <c r="A214" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B214" s="46" t="s">
+        <v>879</v>
+      </c>
+      <c r="C214" s="96" t="s">
+        <v>880</v>
+      </c>
+      <c r="D214" s="96" t="s">
         <v>881</v>
       </c>
-      <c r="B214" s="108" t="s">
-        <v>882</v>
-      </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="106"/>
-      <c r="H214" s="4"/>
+      <c r="E214" s="124"/>
+      <c r="F214" s="122"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="100" t="s">
+      <c r="A215" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="B215" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="B215" s="101" t="s">
+      <c r="C215" s="96" t="s">
+        <v>880</v>
+      </c>
+      <c r="D215" s="96" t="s">
+        <v>881</v>
+      </c>
+      <c r="E215" s="124" t="s">
         <v>884</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="F215" s="122"/>
+      <c r="G215" s="36" t="s">
         <v>885</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="H215" s="131" t="s">
         <v>886</v>
-      </c>
-      <c r="E215" s="98" t="s">
-        <v>887</v>
-      </c>
-      <c r="F215" s="18"/>
-      <c r="G215" s="106" t="s">
-        <v>888</v>
-      </c>
-      <c r="H215" s="130" t="s">
-        <v>889</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="100" t="s">
+      <c r="A216" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="B216" s="52" t="s">
+        <v>888</v>
+      </c>
+      <c r="C216" s="96" t="s">
+        <v>880</v>
+      </c>
+      <c r="D216" s="96" t="s">
+        <v>881</v>
+      </c>
+      <c r="E216" s="124" t="s">
+        <v>889</v>
+      </c>
+      <c r="F216" s="122"/>
+      <c r="G216" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="H216" s="131" t="s">
         <v>890</v>
-      </c>
-      <c r="B216" s="101" t="s">
-        <v>891</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="E216" s="98" t="s">
-        <v>894</v>
-      </c>
-      <c r="F216" s="18"/>
-      <c r="G216" s="106" t="s">
-        <v>895</v>
-      </c>
-      <c r="H216" s="89" t="s">
-        <v>896</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="107" t="s">
-        <v>897</v>
-      </c>
-      <c r="B217" s="108" t="s">
-        <v>898</v>
-      </c>
-      <c r="C217" s="104"/>
-      <c r="D217" s="104"/>
+      <c r="A217" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="B217" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
       <c r="E217" s="18"/>
       <c r="F217" s="18"/>
-      <c r="G217" s="106"/>
+      <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="100" t="s">
-        <v>899</v>
-      </c>
-      <c r="B218" s="101" t="s">
-        <v>900</v>
-      </c>
-      <c r="C218" s="104" t="s">
-        <v>901</v>
-      </c>
-      <c r="D218" s="104" t="s">
-        <v>902</v>
-      </c>
-      <c r="E218" s="98" t="s">
-        <v>903</v>
-      </c>
-      <c r="F218" s="18"/>
-      <c r="G218" s="106" t="s">
-        <v>904</v>
-      </c>
-      <c r="H218" s="89" t="s">
-        <v>905</v>
-      </c>
-      <c r="I218" s="7"/>
+      <c r="A218" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="B218" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="C218" s="96"/>
+      <c r="D218" s="96"/>
+      <c r="E218" s="124" t="s">
+        <v>895</v>
+      </c>
+      <c r="F218" s="122"/>
+      <c r="G218" s="47" t="s">
+        <v>896</v>
+      </c>
+      <c r="H218" s="131" t="s">
+        <v>897</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="100" t="s">
-        <v>906</v>
-      </c>
-      <c r="B219" s="101" t="s">
-        <v>907</v>
-      </c>
-      <c r="C219" s="104" t="s">
+      <c r="A219" s="45" t="s">
+        <v>898</v>
+      </c>
+      <c r="B219" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="82" t="s">
+        <v>900</v>
+      </c>
+      <c r="F219" s="82" t="s">
         <v>901</v>
       </c>
-      <c r="D219" s="104" t="s">
+      <c r="G219" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="E219" s="98" t="s">
-        <v>908</v>
-      </c>
-      <c r="F219" s="18"/>
-      <c r="G219" s="106" t="s">
-        <v>904</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>905</v>
+      <c r="H219" s="35" t="s">
+        <v>903</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
+      <c r="K219" s="70" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="100" t="s">
-        <v>909</v>
-      </c>
-      <c r="B220" s="101" t="s">
-        <v>910</v>
-      </c>
-      <c r="C220" s="104" t="s">
-        <v>911</v>
-      </c>
-      <c r="D220" s="104" t="s">
-        <v>912</v>
-      </c>
-      <c r="E220" s="104" t="s">
-        <v>913</v>
-      </c>
-      <c r="F220" s="7"/>
-      <c r="G220" s="104" t="s">
-        <v>914</v>
-      </c>
-      <c r="H220" s="7" t="s">
-        <v>915</v>
+      <c r="A220" s="45" t="s">
+        <v>905</v>
+      </c>
+      <c r="B220" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="61" t="s">
+        <v>900</v>
+      </c>
+      <c r="F220" s="70" t="s">
+        <v>906</v>
+      </c>
+      <c r="G220" s="70" t="s">
+        <v>902</v>
+      </c>
+      <c r="H220" s="70" t="s">
+        <v>907</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-      <c r="K220" s="7"/>
+      <c r="K220" s="70" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="100" t="s">
-        <v>916</v>
-      </c>
-      <c r="B221" s="131" t="s">
-        <v>917</v>
-      </c>
-      <c r="C221" s="104" t="s">
-        <v>918</v>
-      </c>
-      <c r="D221" s="104" t="s">
-        <v>919</v>
-      </c>
-      <c r="E221" s="106" t="s">
-        <v>920</v>
+      <c r="A221" s="45" t="s">
+        <v>909</v>
+      </c>
+      <c r="B221" s="132" t="s">
+        <v>910</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="35" t="s">
+        <v>912</v>
       </c>
       <c r="F221" s="7"/>
-      <c r="G221" s="106" t="s">
-        <v>921</v>
-      </c>
-      <c r="H221" s="89" t="s">
-        <v>922</v>
+      <c r="G221" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H221" s="133" t="s">
+        <v>914</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="33" t="s">
-        <v>923</v>
-      </c>
-      <c r="B222" s="132" t="s">
-        <v>924</v>
+      <c r="A222" s="113" t="s">
+        <v>915</v>
+      </c>
+      <c r="B222" s="134" t="s">
+        <v>916</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="4"/>
       <c r="F222" s="7"/>
-      <c r="G222" s="4"/>
+      <c r="G222" s="111"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="133" t="s">
-        <v>925</v>
-      </c>
-      <c r="B223" s="134" t="s">
-        <v>926</v>
-      </c>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="18"/>
+      <c r="A223" s="100" t="s">
+        <v>917</v>
+      </c>
+      <c r="B223" s="135" t="s">
+        <v>918</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="E223" s="136" t="s">
+        <v>921</v>
+      </c>
       <c r="F223" s="18"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="96"/>
+      <c r="G223" s="112" t="s">
+        <v>922</v>
+      </c>
+      <c r="H223" s="112" t="s">
+        <v>923</v>
+      </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="107" t="s">
+      <c r="A224" s="100" t="s">
+        <v>924</v>
+      </c>
+      <c r="B224" s="135" t="s">
+        <v>925</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="B224" s="135" t="s">
+      <c r="E224" s="136" t="s">
         <v>928</v>
-      </c>
-      <c r="C224" s="104" t="s">
-        <v>929</v>
-      </c>
-      <c r="D224" s="104" t="s">
-        <v>930</v>
-      </c>
-      <c r="E224" s="98" t="s">
-        <v>931</v>
       </c>
       <c r="F224" s="18"/>
       <c r="G224" s="106" t="s">
-        <v>853</v>
-      </c>
-      <c r="H224" s="136" t="s">
-        <v>932</v>
+        <v>929</v>
+      </c>
+      <c r="H224" s="137" t="s">
+        <v>930</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="107" t="s">
+      <c r="A225" s="100" t="s">
+        <v>924</v>
+      </c>
+      <c r="B225" s="135" t="s">
+        <v>925</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="B225" s="135" t="s">
-        <v>928</v>
-      </c>
-      <c r="C225" s="104" t="s">
-        <v>929</v>
-      </c>
-      <c r="D225" s="104" t="s">
-        <v>930</v>
-      </c>
-      <c r="E225" s="98" t="s">
+      <c r="E225" s="136" t="s">
+        <v>931</v>
+      </c>
+      <c r="F225" s="18"/>
+      <c r="G225" s="115" t="s">
+        <v>932</v>
+      </c>
+      <c r="H225" s="138" t="s">
         <v>933</v>
-      </c>
-      <c r="F225" s="18"/>
-      <c r="G225" s="104" t="s">
-        <v>853</v>
-      </c>
-      <c r="H225" s="137" t="s">
-        <v>932</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="107" t="s">
+      <c r="A226" s="113" t="s">
         <v>934</v>
       </c>
-      <c r="B226" s="135" t="s">
+      <c r="B226" s="134" t="s">
         <v>935</v>
       </c>
-      <c r="C226" s="104" t="s">
-        <v>936</v>
-      </c>
-      <c r="D226" s="104" t="s">
-        <v>937</v>
-      </c>
-      <c r="E226" s="98" t="s">
-        <v>938</v>
-      </c>
+      <c r="C226" s="112"/>
+      <c r="D226" s="112"/>
+      <c r="E226" s="18"/>
       <c r="F226" s="18"/>
-      <c r="G226" s="104" t="s">
-        <v>363</v>
-      </c>
-      <c r="H226" s="137" t="s">
-        <v>939</v>
-      </c>
+      <c r="G226" s="112"/>
+      <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="38" t="s">
+      <c r="A227" s="100" t="s">
+        <v>936</v>
+      </c>
+      <c r="B227" s="135" t="s">
+        <v>937</v>
+      </c>
+      <c r="C227" s="112" t="s">
+        <v>938</v>
+      </c>
+      <c r="D227" s="112" t="s">
+        <v>939</v>
+      </c>
+      <c r="E227" s="136" t="s">
         <v>940</v>
       </c>
-      <c r="B227" s="138" t="s">
+      <c r="F227" s="18"/>
+      <c r="G227" s="115" t="s">
         <v>941</v>
       </c>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="58"/>
+      <c r="H227" s="109" t="s">
+        <v>942</v>
+      </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="45" t="s">
-        <v>942</v>
-      </c>
-      <c r="B228" s="139" t="s">
+      <c r="A228" s="100" t="s">
         <v>943</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="B228" s="135" t="s">
         <v>944</v>
       </c>
-      <c r="D228" s="7"/>
-      <c r="E228" s="18" t="s">
+      <c r="C228" s="112" t="s">
         <v>945</v>
       </c>
+      <c r="D228" s="112" t="s">
+        <v>946</v>
+      </c>
+      <c r="E228" s="136" t="s">
+        <v>947</v>
+      </c>
       <c r="F228" s="18"/>
-      <c r="G228" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="H228" s="32" t="s">
-        <v>947</v>
+      <c r="G228" s="115" t="s">
+        <v>948</v>
+      </c>
+      <c r="H228" s="109" t="s">
+        <v>949</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="45" t="s">
-        <v>948</v>
-      </c>
-      <c r="B229" s="139" t="s">
-        <v>949</v>
-      </c>
-      <c r="C229" s="7" t="s">
+      <c r="A229" s="100" t="s">
         <v>950</v>
       </c>
-      <c r="D229" s="7"/>
-      <c r="E229" s="18" t="s">
+      <c r="B229" s="135" t="s">
         <v>951</v>
       </c>
+      <c r="C229" s="112" t="s">
+        <v>952</v>
+      </c>
+      <c r="D229" s="112" t="s">
+        <v>953</v>
+      </c>
+      <c r="E229" s="136" t="s">
+        <v>954</v>
+      </c>
       <c r="F229" s="18"/>
-      <c r="G229" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="H229" s="32" t="s">
-        <v>952</v>
+      <c r="G229" s="115" t="s">
+        <v>955</v>
+      </c>
+      <c r="H229" s="109" t="s">
+        <v>956</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
-      <c r="K229" s="75" t="s">
-        <v>953</v>
-      </c>
+      <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="45" t="s">
-        <v>954</v>
+      <c r="A230" s="33" t="s">
+        <v>957</v>
       </c>
       <c r="B230" s="139" t="s">
-        <v>955</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>956</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="C230" s="7"/>
       <c r="D230" s="7"/>
-      <c r="E230" s="18" t="s">
-        <v>957</v>
-      </c>
+      <c r="E230" s="18"/>
       <c r="F230" s="18"/>
-      <c r="G230" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="H230" s="140" t="s">
-        <v>958</v>
-      </c>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="38" t="s">
+      <c r="A231" s="140" t="s">
         <v>959</v>
       </c>
-      <c r="B231" s="138" t="s">
-        <v>673</v>
-      </c>
-      <c r="C231" s="58" t="s">
-        <v>674</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="E231" s="118" t="s">
+      <c r="B231" s="141" t="s">
         <v>960</v>
       </c>
-      <c r="F231" s="118"/>
-      <c r="G231" s="141" t="s">
-        <v>363</v>
-      </c>
-      <c r="H231" s="142" t="s">
-        <v>961</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="96"/>
+      <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="38" t="s">
+      <c r="A232" s="113" t="s">
+        <v>961</v>
+      </c>
+      <c r="B232" s="134" t="s">
         <v>962</v>
       </c>
-      <c r="B232" s="138" t="s">
+      <c r="C232" s="112" t="s">
         <v>963</v>
       </c>
-      <c r="C232" s="143" t="s">
-        <v>791</v>
-      </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="119"/>
-      <c r="F232" s="119"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
+      <c r="D232" s="112" t="s">
+        <v>964</v>
+      </c>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="112"/>
+      <c r="H232" s="96"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="45" t="s">
+      <c r="A233" s="100" t="s">
+        <v>965</v>
+      </c>
+      <c r="B233" s="135" t="s">
+        <v>966</v>
+      </c>
+      <c r="C233" s="112" t="s">
+        <v>963</v>
+      </c>
+      <c r="D233" s="112" t="s">
         <v>964</v>
       </c>
-      <c r="B233" s="139" t="s">
-        <v>965</v>
-      </c>
-      <c r="C233" s="144" t="s">
-        <v>791</v>
-      </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="70" t="s">
-        <v>966</v>
-      </c>
-      <c r="F233" s="96"/>
-      <c r="G233" s="96" t="s">
-        <v>58</v>
+      <c r="E233" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="F233" s="18"/>
+      <c r="G233" s="112" t="s">
+        <v>885</v>
       </c>
       <c r="H233" s="96" t="s">
-        <v>59</v>
+        <v>968</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="51" t="s">
-        <v>967</v>
-      </c>
-      <c r="B234" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C234" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D234" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E234" s="96" t="s">
-        <v>968</v>
-      </c>
-      <c r="F234" s="96"/>
-      <c r="G234" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="H234" s="70" t="s">
+      <c r="A234" s="100" t="s">
         <v>969</v>
       </c>
-      <c r="I234" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B234" s="135" t="s">
+        <v>970</v>
+      </c>
+      <c r="C234" s="112" t="s">
+        <v>963</v>
+      </c>
+      <c r="D234" s="112" t="s">
+        <v>964</v>
+      </c>
+      <c r="E234" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="F234" s="18"/>
+      <c r="G234" s="112" t="s">
+        <v>885</v>
+      </c>
+      <c r="H234" s="96" t="s">
+        <v>972</v>
+      </c>
+      <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="51" t="s">
-        <v>970</v>
-      </c>
-      <c r="B235" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C235" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D235" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E235" s="96" t="s">
-        <v>971</v>
-      </c>
-      <c r="F235" s="96"/>
-      <c r="G235" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H235" s="70" t="s">
-        <v>972</v>
+      <c r="A235" s="113" t="s">
+        <v>973</v>
+      </c>
+      <c r="B235" s="134" t="s">
+        <v>974</v>
+      </c>
+      <c r="C235" s="112" t="s">
+        <v>975</v>
+      </c>
+      <c r="D235" s="112" t="s">
+        <v>976</v>
+      </c>
+      <c r="E235" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="F235" s="18"/>
+      <c r="G235" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="H235" s="96" t="s">
+        <v>978</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
+      <c r="K235" s="112" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="51" t="s">
-        <v>973</v>
-      </c>
-      <c r="B236" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C236" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D236" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E236" s="96" t="s">
-        <v>974</v>
-      </c>
-      <c r="F236" s="96"/>
-      <c r="G236" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H236" s="70" t="s">
-        <v>975</v>
-      </c>
+      <c r="A236" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="B236" s="142" t="s">
+        <v>981</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="58"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="51" t="s">
-        <v>976</v>
-      </c>
-      <c r="B237" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C237" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D237" s="58" t="s">
-        <v>977</v>
-      </c>
-      <c r="E237" s="96" t="s">
-        <v>978</v>
-      </c>
-      <c r="F237" s="96"/>
-      <c r="G237" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H237" s="70" t="s">
-        <v>979</v>
+      <c r="A237" s="45" t="s">
+        <v>982</v>
+      </c>
+      <c r="B237" s="132" t="s">
+        <v>983</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D237" s="7"/>
+      <c r="E237" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="F237" s="18"/>
+      <c r="G237" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="H237" s="32" t="s">
+        <v>987</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="51" t="s">
-        <v>980</v>
-      </c>
-      <c r="B238" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C238" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D238" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E238" s="96" t="s">
-        <v>981</v>
-      </c>
-      <c r="F238" s="96"/>
-      <c r="G238" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H238" s="58" t="s">
-        <v>982</v>
+      <c r="A238" s="45" t="s">
+        <v>988</v>
+      </c>
+      <c r="B238" s="132" t="s">
+        <v>989</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D238" s="7"/>
+      <c r="E238" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="F238" s="18"/>
+      <c r="G238" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="H238" s="32" t="s">
+        <v>992</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
+      <c r="K238" s="75" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="51" t="s">
-        <v>983</v>
-      </c>
-      <c r="B239" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C239" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D239" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E239" s="96" t="s">
-        <v>984</v>
-      </c>
-      <c r="F239" s="96"/>
-      <c r="G239" s="58" t="s">
-        <v>985</v>
-      </c>
-      <c r="H239" s="58" t="s">
+      <c r="A239" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="B239" s="132" t="s">
+        <v>995</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D239" s="7"/>
+      <c r="E239" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="F239" s="18"/>
+      <c r="G239" s="7" t="s">
         <v>986</v>
+      </c>
+      <c r="H239" s="32" t="s">
+        <v>998</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="51" t="s">
-        <v>987</v>
-      </c>
-      <c r="B240" s="57" t="s">
-        <v>121</v>
+      <c r="A240" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="B240" s="142" t="s">
+        <v>682</v>
       </c>
       <c r="C240" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D240" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E240" s="96" t="s">
-        <v>988</v>
-      </c>
-      <c r="F240" s="96"/>
-      <c r="G240" s="58" t="s">
-        <v>989</v>
-      </c>
-      <c r="H240" s="58" t="s">
-        <v>990</v>
-      </c>
-      <c r="I240" s="7"/>
+        <v>683</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E240" s="124" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F240" s="124"/>
+      <c r="G240" s="143" t="s">
+        <v>363</v>
+      </c>
+      <c r="H240" s="144" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="51" t="s">
-        <v>991</v>
-      </c>
-      <c r="B241" s="57" t="s">
-        <v>992</v>
-      </c>
-      <c r="C241" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D241" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E241" s="96" t="s">
-        <v>993</v>
-      </c>
-      <c r="F241" s="96"/>
-      <c r="G241" s="145" t="s">
-        <v>985</v>
-      </c>
-      <c r="H241" s="145" t="s">
-        <v>994</v>
-      </c>
+      <c r="A241" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B241" s="142" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C241" s="145" t="s">
+        <v>819</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="122"/>
+      <c r="F241" s="122"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="51" t="s">
-        <v>995</v>
-      </c>
-      <c r="B242" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C242" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D242" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E242" s="96" t="s">
-        <v>996</v>
+      <c r="A242" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B242" s="132" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C242" s="146" t="s">
+        <v>819</v>
+      </c>
+      <c r="D242" s="7"/>
+      <c r="E242" s="70" t="s">
+        <v>1006</v>
       </c>
       <c r="F242" s="96"/>
-      <c r="G242" s="58" t="s">
-        <v>989</v>
-      </c>
-      <c r="H242" s="58" t="s">
-        <v>997</v>
+      <c r="G242" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H242" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="45" t="s">
-        <v>998</v>
-      </c>
-      <c r="B243" s="139" t="s">
-        <v>999</v>
-      </c>
-      <c r="C243" s="144" t="s">
-        <v>791</v>
-      </c>
-      <c r="D243" s="146"/>
-      <c r="E243" s="70" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F243" s="58"/>
-      <c r="G243" s="96" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H243" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="I243" s="7"/>
+      <c r="A243" s="51" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B243" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C243" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D243" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E243" s="96" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F243" s="96"/>
+      <c r="G243" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H243" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I243" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
     <row r="244">
       <c r="A244" s="51" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B244" s="57" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C244" s="58" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D244" s="58" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E244" s="96" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="F244" s="96"/>
       <c r="G244" s="70" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H244" s="70" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I244" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="I244" s="7"/>
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
     </row>
     <row r="245">
       <c r="A245" s="51" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="B245" s="57" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C245" s="58" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D245" s="58" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E245" s="96" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="F245" s="96"/>
       <c r="G245" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H245" s="70" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -18107,26 +18515,26 @@
     </row>
     <row r="246">
       <c r="A246" s="51" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C246" s="58" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D246" s="58" t="s">
-        <v>88</v>
+        <v>1017</v>
       </c>
       <c r="E246" s="96" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="F246" s="96"/>
       <c r="G246" s="70" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H246" s="70" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -18134,26 +18542,26 @@
     </row>
     <row r="247">
       <c r="A247" s="51" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B247" s="57" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C247" s="58" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D247" s="58" t="s">
-        <v>977</v>
+        <v>109</v>
       </c>
       <c r="E247" s="96" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="F247" s="96"/>
-      <c r="G247" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H247" s="70" t="s">
-        <v>1013</v>
+      <c r="G247" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H247" s="58" t="s">
+        <v>1022</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
@@ -18161,26 +18569,26 @@
     </row>
     <row r="248">
       <c r="A248" s="51" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C248" s="58" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="C248" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="D248" s="58" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E248" s="96" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="F248" s="96"/>
-      <c r="G248" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="H248" s="70" t="s">
-        <v>1016</v>
+      <c r="G248" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H248" s="58" t="s">
+        <v>1026</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -18188,26 +18596,26 @@
     </row>
     <row r="249">
       <c r="A249" s="51" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C249" s="96" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="C249" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="D249" s="58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E249" s="96" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="F249" s="96"/>
       <c r="G249" s="58" t="s">
-        <v>985</v>
+        <v>1029</v>
       </c>
       <c r="H249" s="58" t="s">
-        <v>986</v>
+        <v>1030</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -18215,26 +18623,26 @@
     </row>
     <row r="250">
       <c r="A250" s="51" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="B250" s="57" t="s">
-        <v>121</v>
+        <v>1032</v>
       </c>
       <c r="C250" s="58" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D250" s="58" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E250" s="96" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="F250" s="96"/>
-      <c r="G250" s="58" t="s">
-        <v>989</v>
-      </c>
-      <c r="H250" s="58" t="s">
-        <v>990</v>
+      <c r="G250" s="147" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H250" s="147" t="s">
+        <v>1034</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -18242,103 +18650,107 @@
     </row>
     <row r="251">
       <c r="A251" s="51" t="s">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="B251" s="57" t="s">
-        <v>992</v>
+        <v>134</v>
       </c>
       <c r="C251" s="58" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D251" s="58" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E251" s="96" t="s">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="F251" s="96"/>
-      <c r="G251" s="145" t="s">
-        <v>985</v>
-      </c>
-      <c r="H251" s="145" t="s">
-        <v>1023</v>
+      <c r="G251" s="58" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H251" s="58" t="s">
+        <v>1037</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="51" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B252" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D252" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E252" s="96" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F252" s="96"/>
-      <c r="G252" s="58" t="s">
-        <v>989</v>
-      </c>
-      <c r="H252" s="58" t="s">
-        <v>997</v>
+      <c r="A252" s="45" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B252" s="132" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C252" s="146" t="s">
+        <v>819</v>
+      </c>
+      <c r="D252" s="148"/>
+      <c r="E252" s="70" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F252" s="58"/>
+      <c r="G252" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H252" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="45" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B253" s="139" t="s">
-        <v>1027</v>
+      <c r="A253" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B253" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="C253" s="58" t="s">
-        <v>1028</v>
+        <v>64</v>
       </c>
       <c r="D253" s="58" t="s">
-        <v>1029</v>
+        <v>65</v>
       </c>
       <c r="E253" s="96" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="F253" s="96"/>
       <c r="G253" s="70" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H253" s="58" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I253" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="H253" s="70" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="45" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B254" s="139" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C254" s="7"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="70" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F254" s="58"/>
-      <c r="G254" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="H254" s="96" t="s">
-        <v>59</v>
+      <c r="A254" s="51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B254" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C254" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D254" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E254" s="96" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F254" s="96"/>
+      <c r="G254" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H254" s="70" t="s">
+        <v>1047</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
@@ -18346,55 +18758,53 @@
     </row>
     <row r="255">
       <c r="A255" s="51" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C255" s="58" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E255" s="96" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="F255" s="96"/>
       <c r="G255" s="70" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H255" s="70" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
     <row r="256">
       <c r="A256" s="51" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="B256" s="57" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C256" s="58" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D256" s="58" t="s">
-        <v>81</v>
+        <v>1017</v>
       </c>
       <c r="E256" s="96" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="F256" s="96"/>
       <c r="G256" s="70" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H256" s="70" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
@@ -18402,26 +18812,26 @@
     </row>
     <row r="257">
       <c r="A257" s="51" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C257" s="58" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D257" s="58" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E257" s="96" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="F257" s="96"/>
       <c r="G257" s="70" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="H257" s="70" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
@@ -18429,26 +18839,26 @@
     </row>
     <row r="258">
       <c r="A258" s="51" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="B258" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C258" s="58" t="s">
-        <v>101</v>
+        <v>127</v>
+      </c>
+      <c r="C258" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="D258" s="58" t="s">
-        <v>977</v>
+        <v>129</v>
       </c>
       <c r="E258" s="96" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="F258" s="96"/>
-      <c r="G258" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H258" s="70" t="s">
-        <v>1047</v>
+      <c r="G258" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H258" s="58" t="s">
+        <v>1026</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -18456,26 +18866,26 @@
     </row>
     <row r="259">
       <c r="A259" s="51" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="B259" s="57" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C259" s="58" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D259" s="58" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E259" s="96" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="F259" s="96"/>
       <c r="G259" s="58" t="s">
-        <v>111</v>
+        <v>1029</v>
       </c>
       <c r="H259" s="58" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -18483,26 +18893,26 @@
     </row>
     <row r="260">
       <c r="A260" s="51" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="B260" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C260" s="96" t="s">
-        <v>128</v>
+        <v>1032</v>
+      </c>
+      <c r="C260" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="D260" s="58" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E260" s="96" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="F260" s="96"/>
-      <c r="G260" s="58" t="s">
-        <v>985</v>
-      </c>
-      <c r="H260" s="58" t="s">
-        <v>986</v>
+      <c r="G260" s="147" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H260" s="147" t="s">
+        <v>1063</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -18510,111 +18920,352 @@
     </row>
     <row r="261">
       <c r="A261" s="51" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="B261" s="57" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C261" s="58" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D261" s="58" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E261" s="96" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="F261" s="96"/>
       <c r="G261" s="58" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="H261" s="58" t="s">
-        <v>990</v>
+        <v>1037</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="51" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B262" s="57" t="s">
-        <v>992</v>
+      <c r="A262" s="45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B262" s="132" t="s">
+        <v>1067</v>
       </c>
       <c r="C262" s="58" t="s">
-        <v>143</v>
+        <v>1068</v>
       </c>
       <c r="D262" s="58" t="s">
-        <v>144</v>
+        <v>1069</v>
       </c>
       <c r="E262" s="96" t="s">
-        <v>1056</v>
+        <v>1070</v>
       </c>
       <c r="F262" s="96"/>
-      <c r="G262" s="145" t="s">
-        <v>985</v>
-      </c>
-      <c r="H262" s="145" t="s">
-        <v>1057</v>
+      <c r="G262" s="70" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H262" s="58" t="s">
+        <v>1072</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="51" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B263" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C263" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D263" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E263" s="96" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F263" s="96"/>
-      <c r="G263" s="58" t="s">
-        <v>989</v>
-      </c>
-      <c r="H263" s="58" t="s">
-        <v>997</v>
+      <c r="A263" s="45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B263" s="132" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="70" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F263" s="58"/>
+      <c r="G263" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H263" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B264" s="138" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C264" s="147" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D264" s="147" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E264" s="148" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F264" s="148"/>
+      <c r="A264" s="51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B264" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C264" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D264" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E264" s="96" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F264" s="96"/>
       <c r="G264" s="70" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H264" s="103" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I264" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="H264" s="70" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I264" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="51" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B265" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C265" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D265" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E265" s="96" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F265" s="96"/>
+      <c r="G265" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H265" s="70" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I265" s="7"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="7"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="51" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B266" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C266" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D266" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F266" s="96"/>
+      <c r="G266" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H266" s="70" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="7"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="51" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B267" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C267" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D267" s="58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E267" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F267" s="96"/>
+      <c r="G267" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H267" s="70" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I267" s="7"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="7"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="51" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B268" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C268" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D268" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E268" s="96" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F268" s="96"/>
+      <c r="G268" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H268" s="58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I268" s="7"/>
+      <c r="J268" s="7"/>
+      <c r="K268" s="7"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="51" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B269" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C269" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D269" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E269" s="96" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F269" s="96"/>
+      <c r="G269" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H269" s="58" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="7"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="51" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B270" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C270" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D270" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E270" s="96" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F270" s="96"/>
+      <c r="G270" s="58" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H270" s="58" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I270" s="7"/>
+      <c r="J270" s="7"/>
+      <c r="K270" s="7"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="51" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B271" s="57" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C271" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D271" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E271" s="96" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F271" s="96"/>
+      <c r="G271" s="147" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H271" s="147" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="7"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="51" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B272" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C272" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D272" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E272" s="96" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F272" s="96"/>
+      <c r="G272" s="58" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H272" s="58" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="7"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B273" s="142" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C273" s="149" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D273" s="149" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E273" s="150" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F273" s="150"/>
+      <c r="G273" s="70" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H273" s="107" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18658,16 +19309,21 @@
     <hyperlink r:id="rId9" ref="H104"/>
     <hyperlink r:id="rId10" ref="H105"/>
     <hyperlink r:id="rId11" ref="H106"/>
-    <hyperlink r:id="rId12" ref="H215"/>
-    <hyperlink r:id="rId13" ref="H216"/>
-    <hyperlink r:id="rId14" ref="H218"/>
-    <hyperlink r:id="rId15" ref="H221"/>
-    <hyperlink r:id="rId16" ref="H224"/>
-    <hyperlink r:id="rId17" ref="H225"/>
-    <hyperlink r:id="rId18" ref="H226"/>
-    <hyperlink r:id="rId19" ref="H230"/>
+    <hyperlink r:id="rId12" ref="H151"/>
+    <hyperlink r:id="rId13" ref="H152"/>
+    <hyperlink r:id="rId14" ref="H159"/>
+    <hyperlink r:id="rId15" ref="H168"/>
+    <hyperlink r:id="rId16" ref="H170"/>
+    <hyperlink r:id="rId17" ref="H174"/>
+    <hyperlink r:id="rId18" ref="H208"/>
+    <hyperlink r:id="rId19" ref="H215"/>
+    <hyperlink r:id="rId20" ref="H216"/>
+    <hyperlink r:id="rId21" ref="H218"/>
+    <hyperlink r:id="rId22" ref="H221"/>
+    <hyperlink r:id="rId23" ref="H224"/>
+    <hyperlink r:id="rId24" ref="H225"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -18689,7 +19345,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -18725,7 +19381,7 @@
         <v>383</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>1067</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3">
@@ -18736,14 +19392,14 @@
         <v>420</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="35" t="s">
-        <v>1069</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1070</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4">
@@ -18754,14 +19410,14 @@
         <v>420</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="35" t="s">
-        <v>1071</v>
+        <v>1111</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5">
@@ -18781,211 +19437,211 @@
         <v>472</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
+        <v>1113</v>
+      </c>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>1074</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>1075</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>1076</v>
+        <v>1116</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1077</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1079</v>
+        <v>1119</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1081</v>
+        <v>1121</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>1084</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>1085</v>
+        <v>1125</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1086</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="70" t="s">
-        <v>1087</v>
+        <v>1127</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1088</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>1089</v>
+        <v>1129</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1090</v>
+        <v>1130</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75" t="s">
-        <v>1091</v>
+        <v>1131</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>1088</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>1092</v>
+        <v>1132</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C10" s="151" t="s">
-        <v>1094</v>
+        <v>1133</v>
+      </c>
+      <c r="C10" s="153" t="s">
+        <v>1134</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="70" t="s">
-        <v>1095</v>
+        <v>1135</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1096</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>1097</v>
+        <v>1137</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>1098</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1099</v>
+        <v>1139</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1100</v>
+        <v>1140</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>1101</v>
+        <v>1141</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>1102</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1103</v>
+        <v>1143</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1104</v>
+        <v>1144</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F12" s="152" t="s">
-        <v>1106</v>
+        <v>1145</v>
+      </c>
+      <c r="F12" s="154" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>1107</v>
+        <v>1147</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>1108</v>
+        <v>1148</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="70" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F13" s="153" t="s">
-        <v>1110</v>
+        <v>1149</v>
+      </c>
+      <c r="F13" s="155" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="118" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
+      <c r="A14" s="124" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="58" t="s">
-        <v>1112</v>
+        <v>1152</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F14" s="153" t="s">
-        <v>1114</v>
+        <v>1153</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="15">
@@ -22966,108 +23622,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="154" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B2" s="155" t="s">
-        <v>1116</v>
+      <c r="A2" s="156" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B2" s="157" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="156" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B3" s="155" t="s">
-        <v>1118</v>
+      <c r="A3" s="158" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="157" t="s">
-        <v>1119</v>
+      <c r="A4" s="159" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="158" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B6" s="155" t="s">
-        <v>1121</v>
+      <c r="A6" s="160" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="155" t="s">
-        <v>1122</v>
+      <c r="B7" s="157" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="155"/>
+      <c r="B8" s="157"/>
     </row>
     <row r="9">
-      <c r="B9" s="155"/>
+      <c r="B9" s="157"/>
     </row>
     <row r="10">
-      <c r="A10" s="158" t="s">
-        <v>1123</v>
+      <c r="A10" s="160" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="158" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B11" s="159" t="s">
-        <v>1125</v>
+      <c r="A11" s="160" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="160" t="s">
-        <v>1126</v>
+      <c r="B12" s="162" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162" t="s">
-        <v>1127</v>
+      <c r="A13" s="163"/>
+      <c r="B13" s="164" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="163" t="s">
-        <v>1128</v>
+      <c r="B14" s="165" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="164" t="s">
-        <v>1129</v>
+      <c r="B15" s="166" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="165" t="s">
-        <v>1130</v>
+      <c r="B16" s="167" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="158"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="158" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>1132</v>
+      <c r="A18" s="160" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B19" s="167"/>
+        <v>1173</v>
+      </c>
+      <c r="B19" s="169"/>
     </row>
     <row r="21">
-      <c r="A21" s="158" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B21" s="168" t="s">
-        <v>1135</v>
+      <c r="A21" s="160" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -23092,48 +23748,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
-        <v>1136</v>
+      <c r="A1" s="160" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="169" t="s">
-        <v>1137</v>
+      <c r="A2" s="171" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="155" t="s">
-        <v>1138</v>
+      <c r="A3" s="157" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="169" t="s">
-        <v>1139</v>
+      <c r="A4" s="171" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="155" t="s">
-        <v>1140</v>
+      <c r="A5" s="157" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="155" t="s">
-        <v>1141</v>
+      <c r="A6" s="157" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="155" t="s">
-        <v>1142</v>
+      <c r="A7" s="157" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="169" t="s">
-        <v>1143</v>
+      <c r="A8" s="171" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="155" t="s">
-        <v>1144</v>
+      <c r="A9" s="157" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -23159,48 +23815,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B1" s="170" t="s">
-        <v>1145</v>
+        <v>1176</v>
+      </c>
+      <c r="B1" s="172" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="171" t="s">
-        <v>1146</v>
+      <c r="A2" s="173" t="s">
+        <v>1186</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1147</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1148</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1149</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1150</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1151</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1152</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1153</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -23219,7 +23875,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="159"/>
+      <c r="A1" s="161"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23243,40 +23899,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C1" s="172" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E1" s="173" t="s">
+      <c r="A1" s="174" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1" s="174" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1" s="175" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1156</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1157</v>
+        <v>1197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1158</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1159</v>
+        <v>1199</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1161</v>
+        <v>1201</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -23286,13 +23942,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>1163</v>
+        <v>1203</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1161</v>
+        <v>1201</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -23302,287 +23958,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>1164</v>
+        <v>1204</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1165</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1166</v>
+        <v>1206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1167</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1168</v>
+        <v>1208</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1169</v>
+        <v>1209</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1170</v>
+        <v>1210</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1171</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1172</v>
+        <v>1212</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1173</v>
+        <v>1213</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1174</v>
+        <v>1214</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1175</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1176</v>
+        <v>1216</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1177</v>
+        <v>1217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1178</v>
+        <v>1218</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1179</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="174" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B9" s="175" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C9" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D9" s="175" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
+      <c r="A9" s="176" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B9" s="177" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D9" s="177" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
     </row>
     <row r="10">
-      <c r="A10" s="174" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B10" s="175" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C10" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D10" s="175" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="176"/>
-      <c r="X10" s="176"/>
-      <c r="Y10" s="176"/>
-      <c r="Z10" s="176"/>
+      <c r="A10" s="176" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B10" s="177" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C10" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D10" s="177" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
     </row>
     <row r="11">
-      <c r="A11" s="174" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B11" s="175" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C11" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D11" s="175" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="176"/>
-      <c r="X11" s="176"/>
-      <c r="Y11" s="176"/>
-      <c r="Z11" s="176"/>
+      <c r="A11" s="176" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B11" s="177" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C11" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D11" s="177" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
     </row>
     <row r="12">
-      <c r="A12" s="174" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B12" s="175" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C12" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D12" s="175" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="176"/>
-      <c r="Z12" s="176"/>
+      <c r="A12" s="176" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B12" s="177" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C12" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D12" s="177" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
     </row>
     <row r="13">
-      <c r="A13" s="174" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B13" s="174" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C13" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D13" s="175" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
+      <c r="A13" s="176" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B13" s="176" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C13" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
     </row>
     <row r="14">
-      <c r="A14" s="174" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B14" s="174" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C14" s="175" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D14" s="175" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="176"/>
-      <c r="U14" s="176"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="176"/>
-      <c r="Y14" s="176"/>
-      <c r="Z14" s="176"/>
+      <c r="A14" s="176" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B14" s="176" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C14" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23610,52 +24266,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
-        <v>1154</v>
+      <c r="A1" s="179" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="158" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B2" s="158" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C2" s="158" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D2" s="158" t="s">
-        <v>1159</v>
+      <c r="A2" s="160" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B2" s="160" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C2" s="160" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D2" s="160" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="155" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B3" s="155" t="s">
-        <v>1195</v>
+      <c r="A3" s="157" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="155" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B4" s="155" t="s">
-        <v>1197</v>
+      <c r="A4" s="157" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="155" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B5" s="155" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C5" s="178" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D5" s="155" t="s">
-        <v>1200</v>
+      <c r="A5" s="157" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C5" s="180" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D5" s="157" t="s">
+        <v>1240</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F05/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F05/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F05/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F05/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.2-alpha.1</t>
+    <t>2.1.2-alpha.5</t>
   </si>
   <si>
     <r>
@@ -5820,8 +5820,7 @@
     <t>IV.2.7.1</t>
   </si>
   <si>
-    <t>Public Opening
-(Date/Time)</t>
+    <t>Public Opening (Date/Time)</t>
   </si>
   <si>
     <t>BT-132</t>

--- a/mappings/package_F05/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F05/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>
